--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/CapPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/CapPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAAEBB3-B656-409E-99C4-A465B7481111}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0DFD4-B24F-4AD1-B2AC-A7563899F927}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="12465" tabRatio="449" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUDCurve" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,15 @@
     <definedName name="DiscountCurve">Cap!$B$20</definedName>
     <definedName name="ValuationDate">Cap!$F$4</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5785,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5830,7 +5838,7 @@
       </c>
       <c r="B3" s="94">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="33"/>
@@ -6427,11 +6435,11 @@
       </c>
       <c r="B4" s="66">
         <f ca="1">ValuationDate</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="F4" s="71">
         <f ca="1">AUDCurve!B3</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -6574,7 +6582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB503"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6622,7 +6630,7 @@
       </c>
       <c r="Z2" s="26">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
@@ -6672,7 +6680,7 @@
       </c>
       <c r="C5" s="87">
         <f ca="1">SUM(P16:P108)*Cap!B11</f>
-        <v>266554956.54601583</v>
+        <v>266749559.6737859</v>
       </c>
       <c r="E5" s="28"/>
       <c r="T5" s="28"/>
@@ -6787,7 +6795,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="13">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="E12" s="28"/>
       <c r="T12" s="28"/>
@@ -6884,15 +6892,15 @@
     <row r="16" spans="1:28">
       <c r="A16" s="86">
         <f ca="1">C12</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="B16" s="86">
         <f ca="1">IF(A16="#N/A", "#N/A",IF(A17="#N/A",$C$13,A17))</f>
-        <v>43312</v>
+        <v>43738</v>
       </c>
       <c r="C16" s="83">
         <f ca="1">IF(Cap!$B$19="Standard",B16,A16)</f>
-        <v>43312</v>
+        <v>43738</v>
       </c>
       <c r="D16" s="80">
         <v>0</v>
@@ -6911,7 +6919,7 @@
       </c>
       <c r="I16" s="128">
         <f ca="1">IF(C16="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C16))</f>
-        <v>0.98973625488365835</v>
+        <v>0.98980045356078317</v>
       </c>
       <c r="J16" s="128">
         <f ca="1">IF(C16="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A16))</f>
@@ -6919,11 +6927,11 @@
       </c>
       <c r="K16" s="128">
         <f ca="1">IF(C16="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B16))</f>
-        <v>0.98973625488365835</v>
+        <v>0.98980045356078317</v>
       </c>
       <c r="L16" s="128">
         <f ca="1">IF(A16="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A16, B16,Cap!$B$18))</f>
-        <v>0.26301369863013696</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M16" s="128">
         <f ca="1">IF(A16="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A16,Cap!$B$18))</f>
@@ -6931,7 +6939,7 @@
       </c>
       <c r="N16" s="128">
         <f ca="1">IF(A16="#N/A","#N/A",(J16/K16-1)/L16*100)</f>
-        <v>3.9428296227271993</v>
+        <v>4.0012733545813548</v>
       </c>
       <c r="O16" s="128">
         <f ca="1">IF(L16="#N/A",L16,IF(Cap!$B$17="Standard",L16*G16*M16,L16*G16*M16/(1+L16*M16)))</f>
@@ -6939,37 +6947,37 @@
       </c>
       <c r="P16" s="128">
         <f ca="1">IF(N16="#N/A",N16,N16*I16)</f>
-        <v>3.9023614244423657</v>
+        <v>3.9604621811853011</v>
       </c>
       <c r="T16" s="75">
         <f t="shared" ref="T16:T47" ca="1" si="0">IF(ISERROR(U16), "#N/A",IF(U16="","#N/A",U16+D16))</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="U16" s="73">
         <f ca="1">Y16</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
       <c r="V16" s="77">
         <f ca="1">IF(C16="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C16,"ACT/365.FIXED"))</f>
-        <v>0.26301369863013696</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="Y16" s="3">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="85">
         <f ca="1">IF(T18="#N/A", "#N/A",T17)</f>
-        <v>43312</v>
+        <v>43738</v>
       </c>
       <c r="B17" s="85">
         <f t="shared" ref="B17:B80" ca="1" si="1">IF(A17="#N/A", "#N/A",IF(A18="#N/A",$C$13,A18))</f>
-        <v>43404</v>
+        <v>43830</v>
       </c>
       <c r="C17" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B17,A17)</f>
-        <v>43404</v>
+        <v>43830</v>
       </c>
       <c r="D17" s="79">
         <v>0</v>
@@ -6979,11 +6987,11 @@
       </c>
       <c r="F17" s="77">
         <f t="array" aca="1" ref="F17" ca="1">IF(A17&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N17, Cap!$G$12, Cap!$G$13,M17 ),0)</f>
-        <v>2.6326865299694644</v>
+        <v>2.955056674174187</v>
       </c>
       <c r="G17" s="77">
         <f ca="1">F17</f>
-        <v>2.6326865299694644</v>
+        <v>2.955056674174187</v>
       </c>
       <c r="H17" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -6991,15 +6999,15 @@
       </c>
       <c r="I17" s="128">
         <f ca="1">IF(C17="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C17))</f>
-        <v>0.98321184260395666</v>
+        <v>0.98248256390724853</v>
       </c>
       <c r="J17" s="128">
         <f ca="1">IF(C17="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A17))</f>
-        <v>0.98973625488365835</v>
+        <v>0.98980045356078317</v>
       </c>
       <c r="K17" s="128">
         <f ca="1">IF(C17="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B17))</f>
-        <v>0.98321184260395666</v>
+        <v>0.98248256390724853</v>
       </c>
       <c r="L17" s="128">
         <f ca="1">IF(A17="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A17, B17,Cap!$B$18))</f>
@@ -7007,49 +7015,49 @@
       </c>
       <c r="M17" s="128">
         <f ca="1">IF(A17="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A17,Cap!$B$18))</f>
-        <v>0.26301369863013696</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="N17" s="128">
         <f t="shared" ref="N17:N80" ca="1" si="2">IF(A17="#N/A","#N/A",(J17/K17-1)/L17*100)</f>
-        <v>2.6326876287326546</v>
+        <v>2.9550582213030911</v>
       </c>
       <c r="O17" s="128">
         <f ca="1">IF(L17="#N/A",L17,IF(Cap!$B$17="Standard",L17*G17*M17,L17*G17*M17/(1+L17*M17)))</f>
-        <v>0.1636799836170714</v>
+        <v>0.180128214094707</v>
       </c>
       <c r="P17" s="128">
         <f t="shared" ref="P17:P80" ca="1" si="3">IF(N17="#N/A",N17,N17*I17)</f>
-        <v>2.5884896544468745</v>
+        <v>2.9032931777610544</v>
       </c>
       <c r="T17" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43312</v>
+        <v>43738</v>
       </c>
       <c r="U17" s="73">
         <f t="shared" ref="U17:U80" ca="1" si="4">Y17</f>
-        <v>43312</v>
+        <v>43738</v>
       </c>
       <c r="V17" s="77">
         <f ca="1">IF(C17="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C17,"ACT/365.FIXED"))</f>
-        <v>0.51506849315068493</v>
+        <v>0.50958904109589043</v>
       </c>
       <c r="Y17" s="2">
         <f t="array" aca="1" ref="Y17:Y503" ca="1">_xll.HLV5r3.Financial.Cache.GetMetaDatesSchedule(Z5:AB8, Z2, Z3, Z4)</f>
-        <v>43312</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="85">
         <f ca="1">IF(T19="#N/A", "#N/A",T18)</f>
-        <v>43404</v>
+        <v>43830</v>
       </c>
       <c r="B18" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43496</v>
+        <v>43921</v>
       </c>
       <c r="C18" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B18,A18)</f>
-        <v>43496</v>
+        <v>43921</v>
       </c>
       <c r="D18" s="79">
         <v>0</v>
@@ -7059,11 +7067,11 @@
       </c>
       <c r="F18" s="77">
         <f t="array" aca="1" ref="F18" ca="1">IF(A18&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N18, Cap!$G$12, Cap!$G$13,M18 ),0)</f>
-        <v>3.005868879108204</v>
+        <v>2.9869831570914811</v>
       </c>
       <c r="G18" s="77">
         <f t="shared" ref="G18:G24" ca="1" si="5">F18+G17</f>
-        <v>5.6385554090776679</v>
+        <v>5.9420398312656681</v>
       </c>
       <c r="H18" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7071,65 +7079,65 @@
       </c>
       <c r="I18" s="128">
         <f ca="1">IF(C18="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C18))</f>
-        <v>0.97581861471035136</v>
+        <v>0.97522010069120713</v>
       </c>
       <c r="J18" s="128">
         <f ca="1">IF(C18="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A18))</f>
-        <v>0.98321184260395666</v>
+        <v>0.98248256390724853</v>
       </c>
       <c r="K18" s="128">
         <f ca="1">IF(C18="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B18))</f>
-        <v>0.97581861471035136</v>
+        <v>0.97522010069120713</v>
       </c>
       <c r="L18" s="128">
         <f ca="1">IF(A18="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A18, B18,Cap!$B$18))</f>
-        <v>0.25205479452054796</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M18" s="128">
         <f ca="1">IF(A18="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A18,Cap!$B$18))</f>
-        <v>0.51506849315068493</v>
+        <v>0.50958904109589043</v>
       </c>
       <c r="N18" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0058688791110755</v>
+        <v>2.9869831570952656</v>
       </c>
       <c r="O18" s="128">
         <f ca="1">IF(L18="#N/A",L18,IF(Cap!$B$17="Standard",L18*G18*M18,L18*G18*M18/(1+L18*M18)))</f>
-        <v>0.64791261256175126</v>
+        <v>0.66982548357322103</v>
       </c>
       <c r="P18" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9331828056151261</v>
+        <v>2.9129660152253849</v>
       </c>
       <c r="T18" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43404</v>
+        <v>43830</v>
       </c>
       <c r="U18" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43404</v>
+        <v>43830</v>
       </c>
       <c r="V18" s="77">
         <f ca="1">IF(C18="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C18,"ACT/365.FIXED"))</f>
-        <v>0.76712328767123283</v>
+        <v>0.75890410958904109</v>
       </c>
       <c r="Y18" s="2">
         <f ca="1"/>
-        <v>43404</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="85">
         <f ca="1">IF(T20="#N/A", "#N/A",T19)</f>
-        <v>43496</v>
+        <v>43921</v>
       </c>
       <c r="B19" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43585</v>
+        <v>44012</v>
       </c>
       <c r="C19" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B19,A19)</f>
-        <v>43585</v>
+        <v>44012</v>
       </c>
       <c r="D19" s="79">
         <v>0</v>
@@ -7139,11 +7147,11 @@
       </c>
       <c r="F19" s="77">
         <f t="array" aca="1" ref="F19" ca="1">IF(A19&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N19, Cap!$G$12, Cap!$G$13,M19 ),0)</f>
-        <v>3.1967235614414604</v>
+        <v>3.1001332061278011</v>
       </c>
       <c r="G19" s="77">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8352789705191288</v>
+        <v>9.0421730373934697</v>
       </c>
       <c r="H19" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7151,65 +7159,65 @@
       </c>
       <c r="I19" s="128">
         <f ca="1">IF(C19="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C19))</f>
-        <v>0.96827118232911713</v>
+        <v>0.96774033958135108</v>
       </c>
       <c r="J19" s="128">
         <f ca="1">IF(C19="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A19))</f>
-        <v>0.97581861471035136</v>
+        <v>0.97522010069120713</v>
       </c>
       <c r="K19" s="128">
         <f ca="1">IF(C19="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B19))</f>
-        <v>0.96827118232911713</v>
+        <v>0.96774033958135108</v>
       </c>
       <c r="L19" s="128">
         <f ca="1">IF(A19="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A19, B19,Cap!$B$18))</f>
-        <v>0.24383561643835616</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M19" s="128">
         <f ca="1">IF(A19="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A19,Cap!$B$18))</f>
-        <v>0.76712328767123283</v>
+        <v>0.75890410958904109</v>
       </c>
       <c r="N19" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1967235614414604</v>
+        <v>3.1001332061278011</v>
       </c>
       <c r="O19" s="128">
         <f ca="1">IF(L19="#N/A",L19,IF(Cap!$B$17="Standard",L19*G19*M19,L19*G19*M19/(1+L19*M19)))</f>
-        <v>1.3922359350301095</v>
+        <v>1.4386364860228817</v>
       </c>
       <c r="P19" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.095295302416269</v>
+        <v>3.0001239616455408</v>
       </c>
       <c r="T19" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43496</v>
+        <v>43921</v>
       </c>
       <c r="U19" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43496</v>
+        <v>43921</v>
       </c>
       <c r="V19" s="77">
         <f ca="1">IF(C19="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C19,"ACT/365.FIXED"))</f>
-        <v>1.010958904109589</v>
+        <v>1.0082191780821919</v>
       </c>
       <c r="Y19" s="2">
         <f ca="1"/>
-        <v>43496</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="85">
         <f ca="1">IF(T21="#N/A", "#N/A",T20)</f>
-        <v>43585</v>
+        <v>44012</v>
       </c>
       <c r="B20" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43677</v>
+        <v>44104</v>
       </c>
       <c r="C20" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B20,A20)</f>
-        <v>43677</v>
+        <v>44104</v>
       </c>
       <c r="D20" s="79">
         <v>0</v>
@@ -7219,11 +7227,11 @@
       </c>
       <c r="F20" s="77">
         <f t="array" aca="1" ref="F20" ca="1">IF(A20&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N20, Cap!$G$12, Cap!$G$13,M20 ),0)</f>
-        <v>3.5083521254325656</v>
+        <v>3.3823495838645781</v>
       </c>
       <c r="G20" s="77">
         <f t="shared" ca="1" si="5"/>
-        <v>12.343631095951695</v>
+        <v>12.424522621258047</v>
       </c>
       <c r="H20" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7231,15 +7239,15 @@
       </c>
       <c r="I20" s="128">
         <f ca="1">IF(C20="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C20))</f>
-        <v>0.95978384284907825</v>
+        <v>0.95955973369456038</v>
       </c>
       <c r="J20" s="128">
         <f ca="1">IF(C20="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A20))</f>
-        <v>0.96827118232911713</v>
+        <v>0.96774033958135108</v>
       </c>
       <c r="K20" s="128">
         <f ca="1">IF(C20="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B20))</f>
-        <v>0.95978384284907825</v>
+        <v>0.95955973369456038</v>
       </c>
       <c r="L20" s="128">
         <f ca="1">IF(A20="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A20, B20,Cap!$B$18))</f>
@@ -7247,49 +7255,49 @@
       </c>
       <c r="M20" s="128">
         <f ca="1">IF(A20="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A20,Cap!$B$18))</f>
-        <v>1.010958904109589</v>
+        <v>1.0082191780821919</v>
       </c>
       <c r="N20" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5083521254325656</v>
+        <v>3.3823495838645781</v>
       </c>
       <c r="O20" s="128">
         <f ca="1">IF(L20="#N/A",L20,IF(Cap!$B$17="Standard",L20*G20*M20,L20*G20*M20/(1+L20*M20)))</f>
-        <v>2.506634375439623</v>
+        <v>2.5176090510908633</v>
       </c>
       <c r="P20" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3672596850153993</v>
+        <v>3.2455664659550019</v>
       </c>
       <c r="T20" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43585</v>
+        <v>44012</v>
       </c>
       <c r="U20" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43585</v>
+        <v>44012</v>
       </c>
       <c r="V20" s="77">
         <f ca="1">IF(C20="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C20,"ACT/365.FIXED"))</f>
-        <v>1.263013698630137</v>
+        <v>1.2602739726027397</v>
       </c>
       <c r="Y20" s="1">
         <f ca="1"/>
-        <v>43585</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="85">
         <f t="shared" ref="A21:A81" ca="1" si="6">IF(T22="#N/A", "#N/A",T21)</f>
-        <v>43677</v>
+        <v>44104</v>
       </c>
       <c r="B21" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43769</v>
+        <v>44196</v>
       </c>
       <c r="C21" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B21,A21)</f>
-        <v>43769</v>
+        <v>44196</v>
       </c>
       <c r="D21" s="79">
         <v>0</v>
@@ -7299,11 +7307,11 @@
       </c>
       <c r="F21" s="77">
         <f t="array" aca="1" ref="F21" ca="1">IF(A21&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N21, Cap!$G$12, Cap!$G$13,M21 ),0)</f>
-        <v>3.8793735655270702</v>
+        <v>3.7391610362631749</v>
       </c>
       <c r="G21" s="77">
         <f t="shared" ca="1" si="5"/>
-        <v>16.223004661478765</v>
+        <v>16.163683657521222</v>
       </c>
       <c r="H21" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7311,15 +7319,15 @@
       </c>
       <c r="I21" s="128">
         <f ca="1">IF(C21="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C21))</f>
-        <v>0.9504898136632326</v>
+        <v>0.95060057549645072</v>
       </c>
       <c r="J21" s="128">
         <f ca="1">IF(C21="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A21))</f>
-        <v>0.95978384284907825</v>
+        <v>0.95955973369456038</v>
       </c>
       <c r="K21" s="128">
         <f ca="1">IF(C21="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B21))</f>
-        <v>0.9504898136632326</v>
+        <v>0.95060057549645072</v>
       </c>
       <c r="L21" s="128">
         <f ca="1">IF(A21="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A21, B21,Cap!$B$18))</f>
@@ -7327,49 +7335,49 @@
       </c>
       <c r="M21" s="128">
         <f ca="1">IF(A21="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A21,Cap!$B$18))</f>
-        <v>1.263013698630137</v>
+        <v>1.2602739726027397</v>
       </c>
       <c r="N21" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8793735655270702</v>
+        <v>3.7391610362631749</v>
       </c>
       <c r="O21" s="128">
         <f ca="1">IF(L21="#N/A",L21,IF(Cap!$B$17="Standard",L21*G21*M21,L21*G21*M21/(1+L21*M21)))</f>
-        <v>3.9174551700532203</v>
+        <v>3.8967050749739278</v>
       </c>
       <c r="P21" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6873050574278952</v>
+        <v>3.5544486329456793</v>
       </c>
       <c r="T21" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43677</v>
+        <v>44104</v>
       </c>
       <c r="U21" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43677</v>
+        <v>44104</v>
       </c>
       <c r="V21" s="77">
         <f ca="1">IF(C21="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C21,"ACT/365.FIXED"))</f>
-        <v>1.515068493150685</v>
+        <v>1.5123287671232877</v>
       </c>
       <c r="Y21" s="2">
         <f ca="1"/>
-        <v>43677</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>43769</v>
+        <v>44196</v>
       </c>
       <c r="B22" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43861</v>
+        <v>44286</v>
       </c>
       <c r="C22" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B22,A22)</f>
-        <v>43861</v>
+        <v>44286</v>
       </c>
       <c r="D22" s="79">
         <v>0</v>
@@ -7379,11 +7387,11 @@
       </c>
       <c r="F22" s="77">
         <f t="array" aca="1" ref="F22" ca="1">IF(A22&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N22, Cap!$G$12, Cap!$G$13,M22 ),0)</f>
-        <v>4.242605540542546</v>
+        <v>4.1285510834085759</v>
       </c>
       <c r="G22" s="77">
         <f t="shared" ca="1" si="5"/>
-        <v>20.46561020202131</v>
+        <v>20.2922347409298</v>
       </c>
       <c r="H22" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7391,65 +7399,65 @@
       </c>
       <c r="I22" s="128">
         <f ca="1">IF(C22="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C22))</f>
-        <v>0.94043311285149023</v>
+        <v>0.94102099217296753</v>
       </c>
       <c r="J22" s="128">
         <f ca="1">IF(C22="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A22))</f>
-        <v>0.9504898136632326</v>
+        <v>0.95060057549645072</v>
       </c>
       <c r="K22" s="128">
         <f ca="1">IF(C22="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B22))</f>
-        <v>0.94043311285149023</v>
+        <v>0.94102099217296753</v>
       </c>
       <c r="L22" s="128">
         <f ca="1">IF(A22="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A22, B22,Cap!$B$18))</f>
-        <v>0.25205479452054796</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="M22" s="128">
         <f ca="1">IF(A22="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A22,Cap!$B$18))</f>
-        <v>1.515068493150685</v>
+        <v>1.5123287671232877</v>
       </c>
       <c r="N22" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>4.242605540542546</v>
+        <v>4.1285510834085759</v>
       </c>
       <c r="O22" s="128">
         <f ca="1">IF(L22="#N/A",L22,IF(Cap!$B$17="Standard",L22*G22*M22,L22*G22*M22/(1+L22*M22)))</f>
-        <v>5.6556367680677253</v>
+        <v>5.5117040098925258</v>
       </c>
       <c r="P22" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.989886735093406</v>
+        <v>3.8850532367459181</v>
       </c>
       <c r="T22" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43769</v>
+        <v>44196</v>
       </c>
       <c r="U22" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43769</v>
+        <v>44196</v>
       </c>
       <c r="V22" s="77">
         <f ca="1">IF(C22="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C22,"ACT/365.FIXED"))</f>
-        <v>1.7671232876712328</v>
+        <v>1.7589041095890412</v>
       </c>
       <c r="Y22" s="2">
         <f ca="1"/>
-        <v>43769</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>43861</v>
+        <v>44286</v>
       </c>
       <c r="B23" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43951</v>
+        <v>44377</v>
       </c>
       <c r="C23" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B23,A23)</f>
-        <v>43951</v>
+        <v>44377</v>
       </c>
       <c r="D23" s="79">
         <v>0</v>
@@ -7459,11 +7467,11 @@
       </c>
       <c r="F23" s="77">
         <f t="array" aca="1" ref="F23" ca="1">IF(A23&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N23, Cap!$G$12, Cap!$G$13,M23 ),0)</f>
-        <v>4.5835634435287487</v>
+        <v>4.4779438068753166</v>
       </c>
       <c r="G23" s="77">
         <f t="shared" ca="1" si="5"/>
-        <v>25.049173645550059</v>
+        <v>24.770178547805116</v>
       </c>
       <c r="H23" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7471,65 +7479,65 @@
       </c>
       <c r="I23" s="128">
         <f ca="1">IF(C23="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C23))</f>
-        <v>0.92992317942287805</v>
+        <v>0.93063124932406405</v>
       </c>
       <c r="J23" s="128">
         <f ca="1">IF(C23="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A23))</f>
-        <v>0.94043311285149023</v>
+        <v>0.94102099217296753</v>
       </c>
       <c r="K23" s="128">
         <f ca="1">IF(C23="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B23))</f>
-        <v>0.92992317942287805</v>
+        <v>0.93063124932406405</v>
       </c>
       <c r="L23" s="128">
         <f ca="1">IF(A23="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A23, B23,Cap!$B$18))</f>
-        <v>0.24657534246575341</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M23" s="128">
         <f ca="1">IF(A23="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A23,Cap!$B$18))</f>
-        <v>1.7671232876712328</v>
+        <v>1.7589041095890412</v>
       </c>
       <c r="N23" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5835634435287487</v>
+        <v>4.4779438068753166</v>
       </c>
       <c r="O23" s="128">
         <f ca="1">IF(L23="#N/A",L23,IF(Cap!$B$17="Standard",L23*G23*M23,L23*G23*M23/(1+L23*M23)))</f>
-        <v>7.6021671944800993</v>
+        <v>7.5509836893865847</v>
       </c>
       <c r="P23" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2623618904927296</v>
+        <v>4.167314439395331</v>
       </c>
       <c r="T23" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43861</v>
+        <v>44286</v>
       </c>
       <c r="U23" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43861</v>
+        <v>44286</v>
       </c>
       <c r="V23" s="77">
         <f ca="1">IF(C23="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C23,"ACT/365.FIXED"))</f>
-        <v>2.0136986301369864</v>
+        <v>2.0082191780821916</v>
       </c>
       <c r="Y23" s="2">
         <f ca="1"/>
-        <v>43861</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>43951</v>
+        <v>44377</v>
       </c>
       <c r="B24" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44043</v>
+        <v>44469</v>
       </c>
       <c r="C24" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B24,A24)</f>
-        <v>44043</v>
+        <v>44469</v>
       </c>
       <c r="D24" s="79">
         <v>0</v>
@@ -7539,11 +7547,11 @@
       </c>
       <c r="F24" s="77">
         <f t="array" aca="1" ref="F24" ca="1">IF(A24&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N24, Cap!$G$12, Cap!$G$13,M24 ),0)</f>
-        <v>4.8908587079300343</v>
+        <v>4.82632088195008</v>
       </c>
       <c r="G24" s="77">
         <f t="shared" ca="1" si="5"/>
-        <v>29.940032353480092</v>
+        <v>29.596499429755198</v>
       </c>
       <c r="H24" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7551,15 +7559,15 @@
       </c>
       <c r="I24" s="128">
         <f ca="1">IF(C24="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C24))</f>
-        <v>0.91859901787434828</v>
+        <v>0.91944621082715072</v>
       </c>
       <c r="J24" s="128">
         <f ca="1">IF(C24="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A24))</f>
-        <v>0.92992317942287805</v>
+        <v>0.93063124932406405</v>
       </c>
       <c r="K24" s="128">
         <f ca="1">IF(C24="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B24))</f>
-        <v>0.91859901787434828</v>
+        <v>0.91944621082715072</v>
       </c>
       <c r="L24" s="128">
         <f ca="1">IF(A24="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A24, B24,Cap!$B$18))</f>
@@ -7567,49 +7575,49 @@
       </c>
       <c r="M24" s="128">
         <f ca="1">IF(A24="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A24,Cap!$B$18))</f>
-        <v>2.0136986301369864</v>
+        <v>2.0082191780821916</v>
       </c>
       <c r="N24" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8908587079300343</v>
+        <v>4.82632088195008</v>
       </c>
       <c r="O24" s="128">
         <f ca="1">IF(L24="#N/A",L24,IF(Cap!$B$17="Standard",L24*G24*M24,L24*G24*M24/(1+L24*M24)))</f>
-        <v>10.08013636257972</v>
+        <v>9.9464745792404692</v>
       </c>
       <c r="P24" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4927380056667339</v>
+        <v>4.4375424471449536</v>
       </c>
       <c r="T24" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>43951</v>
+        <v>44377</v>
       </c>
       <c r="U24" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>43951</v>
+        <v>44377</v>
       </c>
       <c r="V24" s="77">
         <f ca="1">IF(C24="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C24,"ACT/365.FIXED"))</f>
-        <v>2.2657534246575342</v>
+        <v>2.2602739726027399</v>
       </c>
       <c r="Y24" s="2">
         <f ca="1"/>
-        <v>43951</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44043</v>
+        <v>44469</v>
       </c>
       <c r="B25" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44134</v>
+        <v>44561</v>
       </c>
       <c r="C25" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B25,A25)</f>
-        <v>44134</v>
+        <v>44561</v>
       </c>
       <c r="D25" s="79">
         <v>0</v>
@@ -7619,11 +7627,11 @@
       </c>
       <c r="F25" s="77">
         <f t="array" aca="1" ref="F25" ca="1">IF(A25&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N25, Cap!$G$12, Cap!$G$13,M25 ),0)</f>
-        <v>5.1762115038420458</v>
+        <v>5.2278861285108302</v>
       </c>
       <c r="G25" s="77">
         <f t="shared" ref="G25:G82" ca="1" si="7">F25+G24</f>
-        <v>35.116243857322139</v>
+        <v>34.82438555826603</v>
       </c>
       <c r="H25" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7631,65 +7639,65 @@
       </c>
       <c r="I25" s="128">
         <f ca="1">IF(C25="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C25))</f>
-        <v>0.90689546366627027</v>
+        <v>0.90748811502966065</v>
       </c>
       <c r="J25" s="128">
         <f ca="1">IF(C25="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A25))</f>
-        <v>0.91859901787434828</v>
+        <v>0.91944621082715072</v>
       </c>
       <c r="K25" s="128">
         <f ca="1">IF(C25="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B25))</f>
-        <v>0.90689546366627027</v>
+        <v>0.90748811502966065</v>
       </c>
       <c r="L25" s="128">
         <f ca="1">IF(A25="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A25, B25,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M25" s="128">
         <f ca="1">IF(A25="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A25,Cap!$B$18))</f>
-        <v>2.2657534246575342</v>
+        <v>2.2602739726027399</v>
       </c>
       <c r="N25" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1762115038420458</v>
+        <v>5.2278861285108302</v>
       </c>
       <c r="O25" s="128">
         <f ca="1">IF(L25="#N/A",L25,IF(Cap!$B$17="Standard",L25*G25*M25,L25*G25*M25/(1+L25*M25)))</f>
-        <v>12.676121506751144</v>
+        <v>12.639191219951664</v>
       </c>
       <c r="P25" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6942827318115139</v>
+        <v>4.7442445283520032</v>
       </c>
       <c r="T25" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44043</v>
+        <v>44469</v>
       </c>
       <c r="U25" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44043</v>
+        <v>44469</v>
       </c>
       <c r="V25" s="77">
         <f ca="1">IF(C25="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C25,"ACT/365.FIXED"))</f>
-        <v>2.515068493150685</v>
+        <v>2.5123287671232877</v>
       </c>
       <c r="Y25" s="2">
         <f ca="1"/>
-        <v>44043</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44134</v>
+        <v>44561</v>
       </c>
       <c r="B26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44225</v>
+        <v>44651</v>
       </c>
       <c r="C26" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B26,A26)</f>
-        <v>44225</v>
+        <v>44651</v>
       </c>
       <c r="D26" s="79">
         <v>0</v>
@@ -7699,11 +7707,11 @@
       </c>
       <c r="F26" s="77">
         <f t="array" aca="1" ref="F26" ca="1">IF(A26&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N26, Cap!$G$12, Cap!$G$13,M26 ),0)</f>
-        <v>5.4560593836767062</v>
+        <v>5.5237890233756533</v>
       </c>
       <c r="G26" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>40.572303240998849</v>
+        <v>40.348174581641686</v>
       </c>
       <c r="H26" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7711,65 +7719,65 @@
       </c>
       <c r="I26" s="128">
         <f ca="1">IF(C26="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C26))</f>
-        <v>0.89472472173588802</v>
+        <v>0.8952939414358031</v>
       </c>
       <c r="J26" s="128">
         <f ca="1">IF(C26="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A26))</f>
-        <v>0.90689546366627027</v>
+        <v>0.90748811502966065</v>
       </c>
       <c r="K26" s="128">
         <f ca="1">IF(C26="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B26))</f>
-        <v>0.89472472173588802</v>
+        <v>0.8952939414358031</v>
       </c>
       <c r="L26" s="128">
         <f ca="1">IF(A26="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A26, B26,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="M26" s="128">
         <f ca="1">IF(A26="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A26,Cap!$B$18))</f>
-        <v>2.515068493150685</v>
+        <v>2.5123287671232877</v>
       </c>
       <c r="N26" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4560593836767062</v>
+        <v>5.5237890233756533</v>
       </c>
       <c r="O26" s="128">
         <f ca="1">IF(L26="#N/A",L26,IF(Cap!$B$17="Standard",L26*G26*M26,L26*G26*M26/(1+L26*M26)))</f>
-        <v>15.636105184678941</v>
+        <v>15.43387104921271</v>
       </c>
       <c r="P26" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8816712138346219</v>
+        <v>4.9454148463978145</v>
       </c>
       <c r="T26" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44134</v>
+        <v>44561</v>
       </c>
       <c r="U26" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44134</v>
+        <v>44561</v>
       </c>
       <c r="V26" s="77">
         <f ca="1">IF(C26="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C26,"ACT/365.FIXED"))</f>
-        <v>2.7643835616438355</v>
+        <v>2.7589041095890412</v>
       </c>
       <c r="Y26" s="2">
         <f ca="1"/>
-        <v>44134</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44225</v>
+        <v>44651</v>
       </c>
       <c r="B27" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44316</v>
+        <v>44742</v>
       </c>
       <c r="C27" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B27,A27)</f>
-        <v>44316</v>
+        <v>44742</v>
       </c>
       <c r="D27" s="79">
         <v>0</v>
@@ -7779,11 +7787,11 @@
       </c>
       <c r="F27" s="77">
         <f t="array" aca="1" ref="F27" ca="1">IF(A27&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N27, Cap!$G$12, Cap!$G$13,M27 ),0)</f>
-        <v>5.720939948564201</v>
+        <v>5.8193192985719895</v>
       </c>
       <c r="G27" s="77">
         <f ca="1">F27+G26</f>
-        <v>46.29324318956305</v>
+        <v>46.167493880213677</v>
       </c>
       <c r="H27" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7791,15 +7799,15 @@
       </c>
       <c r="I27" s="128">
         <f ca="1">IF(C27="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C27))</f>
-        <v>0.88214257630667925</v>
+        <v>0.88249038275955882</v>
       </c>
       <c r="J27" s="128">
         <f ca="1">IF(C27="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A27))</f>
-        <v>0.89472472173588802</v>
+        <v>0.8952939414358031</v>
       </c>
       <c r="K27" s="128">
         <f ca="1">IF(C27="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B27))</f>
-        <v>0.88214257630667925</v>
+        <v>0.88249038275955882</v>
       </c>
       <c r="L27" s="128">
         <f ca="1">IF(A27="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A27, B27,Cap!$B$18))</f>
@@ -7807,49 +7815,49 @@
       </c>
       <c r="M27" s="128">
         <f ca="1">IF(A27="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A27,Cap!$B$18))</f>
-        <v>2.7643835616438355</v>
+        <v>2.7589041095890412</v>
       </c>
       <c r="N27" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.720939948564201</v>
+        <v>5.8193192985719895</v>
       </c>
       <c r="O27" s="128">
         <f ca="1">IF(L27="#N/A",L27,IF(Cap!$B$17="Standard",L27*G27*M27,L27*G27*M27/(1+L27*M27)))</f>
-        <v>18.887858802822958</v>
+        <v>18.814431236496787</v>
       </c>
       <c r="P27" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0466847051222254</v>
+        <v>5.1354933151968822</v>
       </c>
       <c r="T27" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44225</v>
+        <v>44651</v>
       </c>
       <c r="U27" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44225</v>
+        <v>44651</v>
       </c>
       <c r="V27" s="77">
         <f ca="1">IF(C27="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C27,"ACT/365.FIXED"))</f>
-        <v>3.0136986301369864</v>
+        <v>3.0082191780821916</v>
       </c>
       <c r="Y27" s="2">
         <f ca="1"/>
-        <v>44225</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44316</v>
+        <v>44742</v>
       </c>
       <c r="B28" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44407</v>
+        <v>44834</v>
       </c>
       <c r="C28" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B28,A28)</f>
-        <v>44407</v>
+        <v>44834</v>
       </c>
       <c r="D28" s="79">
         <v>0</v>
@@ -7859,11 +7867,11 @@
       </c>
       <c r="F28" s="77">
         <f t="array" aca="1" ref="F28" ca="1">IF(A28&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N28, Cap!$G$12, Cap!$G$13,M28 ),0)</f>
-        <v>5.5216286837815227</v>
+        <v>5.5124482018206713</v>
       </c>
       <c r="G28" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>51.814871873344572</v>
+        <v>51.679942082034344</v>
       </c>
       <c r="H28" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7871,65 +7879,65 @@
       </c>
       <c r="I28" s="128">
         <f ca="1">IF(C28="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C28))</f>
-        <v>0.8701636834673947</v>
+        <v>0.8703967508587086</v>
       </c>
       <c r="J28" s="128">
         <f ca="1">IF(C28="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A28))</f>
-        <v>0.88214257630667925</v>
+        <v>0.88249038275955882</v>
       </c>
       <c r="K28" s="128">
         <f ca="1">IF(C28="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B28))</f>
-        <v>0.8701636834673947</v>
+        <v>0.8703967508587086</v>
       </c>
       <c r="L28" s="128">
         <f ca="1">IF(A28="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A28, B28,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M28" s="128">
         <f ca="1">IF(A28="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A28,Cap!$B$18))</f>
-        <v>3.0136986301369864</v>
+        <v>3.0082191780821916</v>
       </c>
       <c r="N28" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5216286837815227</v>
+        <v>5.5124482018206713</v>
       </c>
       <c r="O28" s="128">
         <f ca="1">IF(L28="#N/A",L28,IF(Cap!$B$17="Standard",L28*G28*M28,L28*G28*M28/(1+L28*M28)))</f>
-        <v>22.229373939876961</v>
+        <v>22.286879877386031</v>
       </c>
       <c r="P28" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8047207542185522</v>
+        <v>4.7980170041416432</v>
       </c>
       <c r="T28" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44742</v>
       </c>
       <c r="U28" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44316</v>
+        <v>44742</v>
       </c>
       <c r="V28" s="77">
         <f ca="1">IF(C28="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C28,"ACT/365.FIXED"))</f>
-        <v>3.2630136986301368</v>
+        <v>3.2602739726027399</v>
       </c>
       <c r="Y28" s="2">
         <f ca="1"/>
-        <v>44316</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44407</v>
+        <v>44834</v>
       </c>
       <c r="B29" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44498</v>
+        <v>44925</v>
       </c>
       <c r="C29" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B29,A29)</f>
-        <v>44498</v>
+        <v>44925</v>
       </c>
       <c r="D29" s="79">
         <v>0</v>
@@ -7939,11 +7947,11 @@
       </c>
       <c r="F29" s="77">
         <f t="array" aca="1" ref="F29" ca="1">IF(A29&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N29, Cap!$G$12, Cap!$G$13,M29 ),0)</f>
-        <v>5.7262567520206193</v>
+        <v>5.7101802396369346</v>
       </c>
       <c r="G29" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>57.541128625365189</v>
+        <v>57.390122321671278</v>
       </c>
       <c r="H29" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -7951,15 +7959,15 @@
       </c>
       <c r="I29" s="128">
         <f ca="1">IF(C29="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C29))</f>
-        <v>0.85791571754970131</v>
+        <v>0.85817941708866541</v>
       </c>
       <c r="J29" s="128">
         <f ca="1">IF(C29="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A29))</f>
-        <v>0.8701636834673947</v>
+        <v>0.8703967508587086</v>
       </c>
       <c r="K29" s="128">
         <f ca="1">IF(C29="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B29))</f>
-        <v>0.85791571754970131</v>
+        <v>0.85817941708866541</v>
       </c>
       <c r="L29" s="128">
         <f ca="1">IF(A29="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A29, B29,Cap!$B$18))</f>
@@ -7967,49 +7975,49 @@
       </c>
       <c r="M29" s="128">
         <f ca="1">IF(A29="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A29,Cap!$B$18))</f>
-        <v>3.2630136986301368</v>
+        <v>3.2602739726027399</v>
       </c>
       <c r="N29" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7262567520206193</v>
+        <v>5.7101802396369346</v>
       </c>
       <c r="O29" s="128">
         <f ca="1">IF(L29="#N/A",L29,IF(Cap!$B$17="Standard",L29*G29*M29,L29*G29*M29/(1+L29*M29)))</f>
-        <v>25.812128264801803</v>
+        <v>25.732465255631258</v>
       </c>
       <c r="P29" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9126456702835917</v>
+        <v>4.9003591495228402</v>
       </c>
       <c r="T29" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44407</v>
+        <v>44834</v>
       </c>
       <c r="U29" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44407</v>
+        <v>44834</v>
       </c>
       <c r="V29" s="77">
         <f ca="1">IF(C29="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C29,"ACT/365.FIXED"))</f>
-        <v>3.5123287671232877</v>
+        <v>3.5095890410958903</v>
       </c>
       <c r="Y29" s="2">
         <f ca="1"/>
-        <v>44407</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44498</v>
+        <v>44925</v>
       </c>
       <c r="B30" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44592</v>
+        <v>45016</v>
       </c>
       <c r="C30" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B30,A30)</f>
-        <v>44592</v>
+        <v>45016</v>
       </c>
       <c r="D30" s="79">
         <v>0</v>
@@ -8019,11 +8027,11 @@
       </c>
       <c r="F30" s="77">
         <f t="array" aca="1" ref="F30" ca="1">IF(A30&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N30, Cap!$G$12, Cap!$G$13,M30 ),0)</f>
-        <v>5.9357240293391191</v>
+        <v>5.913374265774336</v>
       </c>
       <c r="G30" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>63.476852654704309</v>
+        <v>63.303496587445615</v>
       </c>
       <c r="H30" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8031,65 +8039,65 @@
       </c>
       <c r="I30" s="128">
         <f ca="1">IF(C30="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C30))</f>
-        <v>0.84499862731005781</v>
+        <v>0.84571115412071818</v>
       </c>
       <c r="J30" s="128">
         <f ca="1">IF(C30="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A30))</f>
-        <v>0.85791571754970131</v>
+        <v>0.85817941708866541</v>
       </c>
       <c r="K30" s="128">
         <f ca="1">IF(C30="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B30))</f>
-        <v>0.84499862731005781</v>
+        <v>0.84571115412071818</v>
       </c>
       <c r="L30" s="128">
         <f ca="1">IF(A30="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A30, B30,Cap!$B$18))</f>
-        <v>0.25753424657534246</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M30" s="128">
         <f ca="1">IF(A30="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A30,Cap!$B$18))</f>
-        <v>3.5123287671232877</v>
+        <v>3.5095890410958903</v>
       </c>
       <c r="N30" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9357240293391191</v>
+        <v>5.913374265774336</v>
       </c>
       <c r="O30" s="128">
         <f ca="1">IF(L30="#N/A",L30,IF(Cap!$B$17="Standard",L30*G30*M30,L30*G30*M30/(1+L30*M30)))</f>
-        <v>30.147708653242216</v>
+        <v>29.541513477778359</v>
       </c>
       <c r="P30" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0156786568828808</v>
+        <v>5.0010065750557677</v>
       </c>
       <c r="T30" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44925</v>
       </c>
       <c r="U30" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44498</v>
+        <v>44925</v>
       </c>
       <c r="V30" s="77">
         <f ca="1">IF(C30="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C30,"ACT/365.FIXED"))</f>
-        <v>3.7698630136986302</v>
+        <v>3.7589041095890412</v>
       </c>
       <c r="Y30" s="2">
         <f ca="1"/>
-        <v>44498</v>
+        <v>44925</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44592</v>
+        <v>45016</v>
       </c>
       <c r="B31" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44680</v>
+        <v>45107</v>
       </c>
       <c r="C31" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B31,A31)</f>
-        <v>44680</v>
+        <v>45107</v>
       </c>
       <c r="D31" s="79">
         <v>0</v>
@@ -8099,11 +8107,11 @@
       </c>
       <c r="F31" s="77">
         <f t="array" aca="1" ref="F31" ca="1">IF(A31&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N31, Cap!$G$12, Cap!$G$13,M31 ),0)</f>
-        <v>6.1210175800673605</v>
+        <v>6.1165933532435206</v>
       </c>
       <c r="G31" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>69.597870234771676</v>
+        <v>69.420089940689138</v>
       </c>
       <c r="H31" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8111,65 +8119,65 @@
       </c>
       <c r="I31" s="128">
         <f ca="1">IF(C31="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C31))</f>
-        <v>0.83270989288206909</v>
+        <v>0.83300812269255975</v>
       </c>
       <c r="J31" s="128">
         <f ca="1">IF(C31="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A31))</f>
-        <v>0.84499862731005781</v>
+        <v>0.84571115412071818</v>
       </c>
       <c r="K31" s="128">
         <f ca="1">IF(C31="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B31))</f>
-        <v>0.83270989288206909</v>
+        <v>0.83300812269255975</v>
       </c>
       <c r="L31" s="128">
         <f ca="1">IF(A31="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A31, B31,Cap!$B$18))</f>
-        <v>0.24109589041095891</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M31" s="128">
         <f ca="1">IF(A31="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A31,Cap!$B$18))</f>
-        <v>3.7698630136986302</v>
+        <v>3.7589041095890412</v>
       </c>
       <c r="N31" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1210175800673605</v>
+        <v>6.1165933532435206</v>
       </c>
       <c r="O31" s="128">
         <f ca="1">IF(L31="#N/A",L31,IF(Cap!$B$17="Standard",L31*G31*M31,L31*G31*M31/(1+L31*M31)))</f>
-        <v>33.13816797013142</v>
+        <v>33.583919021357659</v>
       </c>
       <c r="P31" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0970318934271539</v>
+        <v>5.0951719464591738</v>
       </c>
       <c r="T31" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44592</v>
+        <v>45016</v>
       </c>
       <c r="U31" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44592</v>
+        <v>45016</v>
       </c>
       <c r="V31" s="77">
         <f ca="1">IF(C31="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C31,"ACT/365.FIXED"))</f>
-        <v>4.0109589041095894</v>
+        <v>4.0082191780821921</v>
       </c>
       <c r="Y31" s="2">
         <f ca="1"/>
-        <v>44592</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44680</v>
+        <v>45107</v>
       </c>
       <c r="B32" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44771</v>
+        <v>45198</v>
       </c>
       <c r="C32" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B32,A32)</f>
-        <v>44771</v>
+        <v>45198</v>
       </c>
       <c r="D32" s="79">
         <v>0</v>
@@ -8179,11 +8187,11 @@
       </c>
       <c r="F32" s="77">
         <f t="array" aca="1" ref="F32" ca="1">IF(A32&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N32, Cap!$G$12, Cap!$G$13,M32 ),0)</f>
-        <v>5.5727115668592084</v>
+        <v>5.5939764916711754</v>
       </c>
       <c r="G32" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>75.170581801630888</v>
+        <v>75.014066432360309</v>
       </c>
       <c r="H32" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8191,15 +8199,15 @@
       </c>
       <c r="I32" s="128">
         <f ca="1">IF(C32="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C32))</f>
-        <v>0.82129908399505702</v>
+        <v>0.82155026809889142</v>
       </c>
       <c r="J32" s="128">
         <f ca="1">IF(C32="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A32))</f>
-        <v>0.83270989288206909</v>
+        <v>0.83300812269255975</v>
       </c>
       <c r="K32" s="128">
         <f ca="1">IF(C32="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B32))</f>
-        <v>0.82129908399505702</v>
+        <v>0.82155026809889142</v>
       </c>
       <c r="L32" s="128">
         <f ca="1">IF(A32="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A32, B32,Cap!$B$18))</f>
@@ -8207,49 +8215,49 @@
       </c>
       <c r="M32" s="128">
         <f ca="1">IF(A32="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A32,Cap!$B$18))</f>
-        <v>4.0109589041095894</v>
+        <v>4.0082191780821921</v>
       </c>
       <c r="N32" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5727115668592084</v>
+        <v>5.5939764916711754</v>
       </c>
       <c r="O32" s="128">
         <f ca="1">IF(L32="#N/A",L32,IF(Cap!$B$17="Standard",L32*G32*M32,L32*G32*M32/(1+L32*M32)))</f>
-        <v>37.585149840834355</v>
+        <v>37.494078294398619</v>
       </c>
       <c r="P32" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5768629052301266</v>
+        <v>4.5957328864713505</v>
       </c>
       <c r="T32" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>45107</v>
       </c>
       <c r="U32" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44680</v>
+        <v>45107</v>
       </c>
       <c r="V32" s="77">
         <f ca="1">IF(C32="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C32,"ACT/365.FIXED"))</f>
-        <v>4.2602739726027394</v>
+        <v>4.2575342465753421</v>
       </c>
       <c r="Y32" s="2">
         <f ca="1"/>
-        <v>44680</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44771</v>
+        <v>45198</v>
       </c>
       <c r="B33" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>45289</v>
       </c>
       <c r="C33" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B33,A33)</f>
-        <v>44865</v>
+        <v>45289</v>
       </c>
       <c r="D33" s="79">
         <v>0</v>
@@ -8259,11 +8267,11 @@
       </c>
       <c r="F33" s="77">
         <f t="array" aca="1" ref="F33" ca="1">IF(A33&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N33, Cap!$G$12, Cap!$G$13,M33 ),0)</f>
-        <v>5.6909206919552062</v>
+        <v>5.6860441680425806</v>
       </c>
       <c r="G33" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>80.861502493586102</v>
+        <v>80.700110600402894</v>
       </c>
       <c r="H33" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8271,65 +8279,65 @@
       </c>
       <c r="I33" s="128">
         <f ca="1">IF(C33="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C33))</f>
-        <v>0.80943593449931195</v>
+        <v>0.81006662996274548</v>
       </c>
       <c r="J33" s="128">
         <f ca="1">IF(C33="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A33))</f>
-        <v>0.82129908399505702</v>
+        <v>0.82155026809889142</v>
       </c>
       <c r="K33" s="128">
         <f ca="1">IF(C33="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B33))</f>
-        <v>0.80943593449931195</v>
+        <v>0.81006662996274548</v>
       </c>
       <c r="L33" s="128">
         <f ca="1">IF(A33="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A33, B33,Cap!$B$18))</f>
-        <v>0.25753424657534246</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M33" s="128">
         <f ca="1">IF(A33="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A33,Cap!$B$18))</f>
-        <v>4.2602739726027394</v>
+        <v>4.2575342465753421</v>
       </c>
       <c r="N33" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6909206919552062</v>
+        <v>5.6860441680425806</v>
       </c>
       <c r="O33" s="128">
         <f ca="1">IF(L33="#N/A",L33,IF(Cap!$B$17="Standard",L33*G33*M33,L33*G33*M33/(1+L33*M33)))</f>
-        <v>42.303999067583455</v>
+        <v>41.553185965741839</v>
       </c>
       <c r="P33" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6064357084542333</v>
+        <v>4.6060746370255758</v>
       </c>
       <c r="T33" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44771</v>
+        <v>45198</v>
       </c>
       <c r="U33" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44771</v>
+        <v>45198</v>
       </c>
       <c r="V33" s="77">
         <f ca="1">IF(C33="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C33,"ACT/365.FIXED"))</f>
-        <v>4.5178082191780824</v>
+        <v>4.506849315068493</v>
       </c>
       <c r="Y33" s="2">
         <f ca="1"/>
-        <v>44771</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44865</v>
+        <v>45289</v>
       </c>
       <c r="B34" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45379</v>
       </c>
       <c r="C34" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B34,A34)</f>
-        <v>44957</v>
+        <v>45379</v>
       </c>
       <c r="D34" s="79">
         <v>0</v>
@@ -8339,11 +8347,11 @@
       </c>
       <c r="F34" s="77">
         <f t="array" aca="1" ref="F34" ca="1">IF(A34&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N34, Cap!$G$12, Cap!$G$13,M34 ),0)</f>
-        <v>5.8075812904838298</v>
+        <v>5.8003067594500548</v>
       </c>
       <c r="G34" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>86.669083784069926</v>
+        <v>86.500417359852946</v>
       </c>
       <c r="H34" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8351,65 +8359,65 @@
       </c>
       <c r="I34" s="128">
         <f ca="1">IF(C34="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C34))</f>
-        <v>0.79775812208122976</v>
+        <v>0.79864431809161984</v>
       </c>
       <c r="J34" s="128">
         <f ca="1">IF(C34="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A34))</f>
-        <v>0.80943593449931195</v>
+        <v>0.81006662996274548</v>
       </c>
       <c r="K34" s="128">
         <f ca="1">IF(C34="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B34))</f>
-        <v>0.79775812208122976</v>
+        <v>0.79864431809161984</v>
       </c>
       <c r="L34" s="128">
         <f ca="1">IF(A34="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A34, B34,Cap!$B$18))</f>
-        <v>0.25205479452054796</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="M34" s="128">
         <f ca="1">IF(A34="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A34,Cap!$B$18))</f>
-        <v>4.5178082191780824</v>
+        <v>4.506849315068493</v>
       </c>
       <c r="N34" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8075812904838298</v>
+        <v>5.8003067594500548</v>
       </c>
       <c r="O34" s="128">
         <f ca="1">IF(L34="#N/A",L34,IF(Cap!$B$17="Standard",L34*G34*M34,L34*G34*M34/(1+L34*M34)))</f>
-        <v>46.145561808262578</v>
+        <v>45.529772607328155</v>
       </c>
       <c r="P34" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.633045144130465</v>
+        <v>4.632382036623202</v>
       </c>
       <c r="T34" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44865</v>
+        <v>45289</v>
       </c>
       <c r="U34" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44865</v>
+        <v>45289</v>
       </c>
       <c r="V34" s="77">
         <f ca="1">IF(C34="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C34,"ACT/365.FIXED"))</f>
-        <v>4.7698630136986298</v>
+        <v>4.7534246575342465</v>
       </c>
       <c r="Y34" s="2">
         <f ca="1"/>
-        <v>44865</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>44957</v>
+        <v>45379</v>
       </c>
       <c r="B35" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45471</v>
       </c>
       <c r="C35" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B35,A35)</f>
-        <v>45044</v>
+        <v>45471</v>
       </c>
       <c r="D35" s="79">
         <v>0</v>
@@ -8419,11 +8427,11 @@
       </c>
       <c r="F35" s="77">
         <f t="array" aca="1" ref="F35" ca="1">IF(A35&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N35, Cap!$G$12, Cap!$G$13,M35 ),0)</f>
-        <v>5.9167472637624199</v>
+        <v>5.9166057396098344</v>
       </c>
       <c r="G35" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>92.585831047832343</v>
+        <v>92.417023099462781</v>
       </c>
       <c r="H35" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8431,65 +8439,65 @@
       </c>
       <c r="I35" s="128">
         <f ca="1">IF(C35="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C35))</f>
-        <v>0.78666385535278138</v>
+        <v>0.78690907348484462</v>
       </c>
       <c r="J35" s="128">
         <f ca="1">IF(C35="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A35))</f>
-        <v>0.79775812208122976</v>
+        <v>0.79864431809161984</v>
       </c>
       <c r="K35" s="128">
         <f ca="1">IF(C35="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B35))</f>
-        <v>0.78666385535278138</v>
+        <v>0.78690907348484462</v>
       </c>
       <c r="L35" s="128">
         <f ca="1">IF(A35="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A35, B35,Cap!$B$18))</f>
-        <v>0.23835616438356164</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M35" s="128">
         <f ca="1">IF(A35="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A35,Cap!$B$18))</f>
-        <v>4.7698630136986298</v>
+        <v>4.7534246575342465</v>
       </c>
       <c r="N35" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9167472637624199</v>
+        <v>5.9166057396098344</v>
       </c>
       <c r="O35" s="128">
         <f ca="1">IF(L35="#N/A",L35,IF(Cap!$B$17="Standard",L35*G35*M35,L35*G35*M35/(1+L35*M35)))</f>
-        <v>49.259192640896188</v>
+        <v>50.373423576076931</v>
       </c>
       <c r="P35" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.654491213659365</v>
+        <v>4.6558307407314885</v>
       </c>
       <c r="T35" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44957</v>
+        <v>45379</v>
       </c>
       <c r="U35" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>44957</v>
+        <v>45379</v>
       </c>
       <c r="V35" s="77">
         <f ca="1">IF(C35="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C35,"ACT/365.FIXED"))</f>
-        <v>5.0082191780821921</v>
+        <v>5.0054794520547947</v>
       </c>
       <c r="Y35" s="2">
         <f ca="1"/>
-        <v>44957</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45044</v>
+        <v>45471</v>
       </c>
       <c r="B36" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45077</v>
+        <v>45504</v>
       </c>
       <c r="C36" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B36,A36)</f>
-        <v>45077</v>
+        <v>45504</v>
       </c>
       <c r="D36" s="79">
         <v>0</v>
@@ -8499,11 +8507,11 @@
       </c>
       <c r="F36" s="77">
         <f t="array" aca="1" ref="F36" ca="1">IF(A36&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N36, Cap!$G$12, Cap!$G$13,M36 ),0)</f>
-        <v>5.8294865528480013</v>
+        <v>5.8467777030895718</v>
       </c>
       <c r="G36" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>98.415317600680339</v>
+        <v>98.263800802552353</v>
       </c>
       <c r="H36" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8511,15 +8519,15 @@
       </c>
       <c r="I36" s="128">
         <f ca="1">IF(C36="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C36))</f>
-        <v>0.78253948515031679</v>
+        <v>0.78277124465809778</v>
       </c>
       <c r="J36" s="128">
         <f ca="1">IF(C36="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A36))</f>
-        <v>0.78666385535278138</v>
+        <v>0.78690907348484462</v>
       </c>
       <c r="K36" s="128">
         <f ca="1">IF(C36="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B36))</f>
-        <v>0.78253948515031679</v>
+        <v>0.78277124465809778</v>
       </c>
       <c r="L36" s="128">
         <f ca="1">IF(A36="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A36, B36,Cap!$B$18))</f>
@@ -8527,49 +8535,49 @@
       </c>
       <c r="M36" s="128">
         <f ca="1">IF(A36="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A36,Cap!$B$18))</f>
-        <v>5.0082191780821921</v>
+        <v>5.0054794520547947</v>
       </c>
       <c r="N36" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8294865528480013</v>
+        <v>5.8467777030895718</v>
       </c>
       <c r="O36" s="128">
         <f ca="1">IF(L36="#N/A",L36,IF(Cap!$B$17="Standard",L36*G36*M36,L36*G36*M36/(1+L36*M36)))</f>
-        <v>30.673398565445655</v>
+        <v>30.614640723178887</v>
       </c>
       <c r="P36" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5618034057563701</v>
+        <v>4.5766894598866381</v>
       </c>
       <c r="T36" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45044</v>
+        <v>45471</v>
       </c>
       <c r="U36" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45044</v>
+        <v>45471</v>
       </c>
       <c r="V36" s="77">
         <f ca="1">IF(C36="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C36,"ACT/365.FIXED"))</f>
-        <v>5.0986301369863014</v>
+        <v>5.095890410958904</v>
       </c>
       <c r="Y36" s="2">
         <f ca="1"/>
-        <v>45044</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45077</v>
+        <v>45504</v>
       </c>
       <c r="B37" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45107</v>
+        <v>45534</v>
       </c>
       <c r="C37" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B37,A37)</f>
-        <v>45107</v>
+        <v>45534</v>
       </c>
       <c r="D37" s="79">
         <v>0</v>
@@ -8579,11 +8587,11 @@
       </c>
       <c r="F37" s="77">
         <f t="array" aca="1" ref="F37" ca="1">IF(A37&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N37, Cap!$G$12, Cap!$G$13,M37 ),0)</f>
-        <v>5.8628441756749128</v>
+        <v>5.8686390188111028</v>
       </c>
       <c r="G37" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>104.27816177635525</v>
+        <v>104.13243982136346</v>
       </c>
       <c r="H37" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8591,15 +8599,15 @@
       </c>
       <c r="I37" s="128">
         <f ca="1">IF(C37="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C37))</f>
-        <v>0.77878668652904826</v>
+        <v>0.77901364203685641</v>
       </c>
       <c r="J37" s="128">
         <f ca="1">IF(C37="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A37))</f>
-        <v>0.78253948515031679</v>
+        <v>0.78277124465809778</v>
       </c>
       <c r="K37" s="128">
         <f ca="1">IF(C37="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B37))</f>
-        <v>0.77878668652904826</v>
+        <v>0.77901364203685641</v>
       </c>
       <c r="L37" s="128">
         <f ca="1">IF(A37="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A37, B37,Cap!$B$18))</f>
@@ -8607,49 +8615,49 @@
       </c>
       <c r="M37" s="128">
         <f ca="1">IF(A37="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A37,Cap!$B$18))</f>
-        <v>5.0986301369863014</v>
+        <v>5.095890410958904</v>
       </c>
       <c r="N37" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8628441756749128</v>
+        <v>5.8686390188111028</v>
       </c>
       <c r="O37" s="128">
         <f ca="1">IF(L37="#N/A",L37,IF(Cap!$B$17="Standard",L37*G37*M37,L37*G37*M37/(1+L37*M37)))</f>
-        <v>30.794476591330106</v>
+        <v>30.739797074630768</v>
       </c>
       <c r="P37" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5659049892099945</v>
+        <v>4.5717498558436409</v>
       </c>
       <c r="T37" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45077</v>
+        <v>45504</v>
       </c>
       <c r="U37" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45077</v>
+        <v>45504</v>
       </c>
       <c r="V37" s="77">
         <f ca="1">IF(C37="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C37,"ACT/365.FIXED"))</f>
-        <v>5.1808219178082195</v>
+        <v>5.1780821917808222</v>
       </c>
       <c r="Y37" s="2">
         <f ca="1"/>
-        <v>45077</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45107</v>
+        <v>45534</v>
       </c>
       <c r="B38" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45138</v>
+        <v>45565</v>
       </c>
       <c r="C38" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B38,A38)</f>
-        <v>45138</v>
+        <v>45565</v>
       </c>
       <c r="D38" s="79">
         <v>0</v>
@@ -8659,11 +8667,11 @@
       </c>
       <c r="F38" s="77">
         <f t="array" aca="1" ref="F38" ca="1">IF(A38&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N38, Cap!$G$12, Cap!$G$13,M38 ),0)</f>
-        <v>5.8969667741433627</v>
+        <v>5.9030714262420991</v>
       </c>
       <c r="G38" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>110.17512855049861</v>
+        <v>110.03551124760556</v>
       </c>
       <c r="H38" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8671,15 +8679,15 @@
       </c>
       <c r="I38" s="128">
         <f ca="1">IF(C38="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C38))</f>
-        <v>0.77490566238467795</v>
+        <v>0.7751274880445963</v>
       </c>
       <c r="J38" s="128">
         <f ca="1">IF(C38="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A38))</f>
-        <v>0.77878668652904826</v>
+        <v>0.77901364203685641</v>
       </c>
       <c r="K38" s="128">
         <f ca="1">IF(C38="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B38))</f>
-        <v>0.77490566238467795</v>
+        <v>0.7751274880445963</v>
       </c>
       <c r="L38" s="128">
         <f ca="1">IF(A38="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A38, B38,Cap!$B$18))</f>
@@ -8687,49 +8695,49 @@
       </c>
       <c r="M38" s="128">
         <f ca="1">IF(A38="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A38,Cap!$B$18))</f>
-        <v>5.1808219178082195</v>
+        <v>5.1780821917808222</v>
       </c>
       <c r="N38" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8969667741433627</v>
+        <v>5.9030714262420991</v>
       </c>
       <c r="O38" s="128">
         <f ca="1">IF(L38="#N/A",L38,IF(Cap!$B$17="Standard",L38*G38*M38,L38*G38*M38/(1+L38*M38)))</f>
-        <v>33.665420236850281</v>
+        <v>33.610409008665691</v>
       </c>
       <c r="P38" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5695929441779999</v>
+        <v>4.5756329263708704</v>
       </c>
       <c r="T38" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45534</v>
       </c>
       <c r="U38" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45107</v>
+        <v>45534</v>
       </c>
       <c r="V38" s="77">
         <f ca="1">IF(C38="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C38,"ACT/365.FIXED"))</f>
-        <v>5.2657534246575342</v>
+        <v>5.2630136986301368</v>
       </c>
       <c r="Y38" s="2">
         <f ca="1"/>
-        <v>45107</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45138</v>
+        <v>45565</v>
       </c>
       <c r="B39" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="C39" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B39,A39)</f>
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="D39" s="79">
         <v>0</v>
@@ -8739,11 +8747,11 @@
       </c>
       <c r="F39" s="77">
         <f t="array" aca="1" ref="F39" ca="1">IF(A39&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N39, Cap!$G$12, Cap!$G$13,M39 ),0)</f>
-        <v>5.9311697391999196</v>
+        <v>5.9375883129919593</v>
       </c>
       <c r="G39" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>116.10629828969853</v>
+        <v>115.97309956059752</v>
       </c>
       <c r="H39" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8751,15 +8759,15 @@
       </c>
       <c r="I39" s="128">
         <f ca="1">IF(C39="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C39))</f>
-        <v>0.77102169316337721</v>
+        <v>0.7712382237438058</v>
       </c>
       <c r="J39" s="128">
         <f ca="1">IF(C39="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A39))</f>
-        <v>0.77490566238467795</v>
+        <v>0.7751274880445963</v>
       </c>
       <c r="K39" s="128">
         <f ca="1">IF(C39="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B39))</f>
-        <v>0.77102169316337721</v>
+        <v>0.7712382237438058</v>
       </c>
       <c r="L39" s="128">
         <f ca="1">IF(A39="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A39, B39,Cap!$B$18))</f>
@@ -8767,49 +8775,49 @@
       </c>
       <c r="M39" s="128">
         <f ca="1">IF(A39="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A39,Cap!$B$18))</f>
-        <v>5.2657534246575342</v>
+        <v>5.2630136986301368</v>
       </c>
       <c r="N39" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9311697391999196</v>
+        <v>5.9375883129919593</v>
       </c>
       <c r="O39" s="128">
         <f ca="1">IF(L39="#N/A",L39,IF(Cap!$B$17="Standard",L39*G39*M39,L39*G39*M39/(1+L39*M39)))</f>
-        <v>35.879638522962431</v>
+        <v>35.825590591843081</v>
       </c>
       <c r="P39" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5730605347573086</v>
+        <v>4.5792950638338992</v>
       </c>
       <c r="T39" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45138</v>
+        <v>45565</v>
       </c>
       <c r="U39" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45138</v>
+        <v>45565</v>
       </c>
       <c r="V39" s="77">
         <f ca="1">IF(C39="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C39,"ACT/365.FIXED"))</f>
-        <v>5.3506849315068497</v>
+        <v>5.3479452054794523</v>
       </c>
       <c r="Y39" s="2">
         <f ca="1"/>
-        <v>45138</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="B40" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45198</v>
+        <v>45625</v>
       </c>
       <c r="C40" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B40,A40)</f>
-        <v>45198</v>
+        <v>45625</v>
       </c>
       <c r="D40" s="79">
         <v>0</v>
@@ -8819,11 +8827,11 @@
       </c>
       <c r="F40" s="77">
         <f t="array" aca="1" ref="F40" ca="1">IF(A40&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N40, Cap!$G$12, Cap!$G$13,M40 ),0)</f>
-        <v>5.9632954139093126</v>
+        <v>5.9700155698433566</v>
       </c>
       <c r="G40" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>122.06959370360784</v>
+        <v>121.94311513044087</v>
       </c>
       <c r="H40" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8831,15 +8839,15 @@
       </c>
       <c r="I40" s="128">
         <f ca="1">IF(C40="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C40))</f>
-        <v>0.76738584913786989</v>
+        <v>0.76759727953570356</v>
       </c>
       <c r="J40" s="128">
         <f ca="1">IF(C40="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A40))</f>
-        <v>0.77102169316337721</v>
+        <v>0.7712382237438058</v>
       </c>
       <c r="K40" s="128">
         <f ca="1">IF(C40="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B40))</f>
-        <v>0.76738584913786989</v>
+        <v>0.76759727953570356</v>
       </c>
       <c r="L40" s="128">
         <f ca="1">IF(A40="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A40, B40,Cap!$B$18))</f>
@@ -8847,49 +8855,49 @@
       </c>
       <c r="M40" s="128">
         <f ca="1">IF(A40="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A40,Cap!$B$18))</f>
-        <v>5.3506849315068497</v>
+        <v>5.3479452054794523</v>
       </c>
       <c r="N40" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9632954139093126</v>
+        <v>5.9700155698433566</v>
       </c>
       <c r="O40" s="128">
         <f ca="1">IF(L40="#N/A",L40,IF(Cap!$B$17="Standard",L40*G40*M40,L40*G40*M40/(1+L40*M40)))</f>
-        <v>36.414109082340005</v>
+        <v>36.363308072379397</v>
       </c>
       <c r="P40" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.576148514862763</v>
+        <v>4.5825677101975533</v>
       </c>
       <c r="T40" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="U40" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45169</v>
+        <v>45596</v>
       </c>
       <c r="V40" s="77">
         <f ca="1">IF(C40="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C40,"ACT/365.FIXED"))</f>
-        <v>5.4301369863013695</v>
+        <v>5.4273972602739722</v>
       </c>
       <c r="Y40" s="2">
         <f ca="1"/>
-        <v>45169</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45198</v>
+        <v>45625</v>
       </c>
       <c r="B41" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45230</v>
+        <v>45657</v>
       </c>
       <c r="C41" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B41,A41)</f>
-        <v>45230</v>
+        <v>45657</v>
       </c>
       <c r="D41" s="79">
         <v>0</v>
@@ -8899,11 +8907,11 @@
       </c>
       <c r="F41" s="77">
         <f t="array" aca="1" ref="F41" ca="1">IF(A41&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N41, Cap!$G$12, Cap!$G$13,M41 ),0)</f>
-        <v>5.9984092377614626</v>
+        <v>6.0054415547790114</v>
       </c>
       <c r="G41" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>128.06800294136929</v>
+        <v>127.94855668521988</v>
       </c>
       <c r="H41" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8911,15 +8919,15 @@
       </c>
       <c r="I41" s="128">
         <f ca="1">IF(C41="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C41))</f>
-        <v>0.76337137121136744</v>
+        <v>0.76357701247074727</v>
       </c>
       <c r="J41" s="128">
         <f ca="1">IF(C41="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A41))</f>
-        <v>0.76738584913786989</v>
+        <v>0.76759727953570356</v>
       </c>
       <c r="K41" s="128">
         <f ca="1">IF(C41="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B41))</f>
-        <v>0.76337137121136744</v>
+        <v>0.76357701247074727</v>
       </c>
       <c r="L41" s="128">
         <f ca="1">IF(A41="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A41, B41,Cap!$B$18))</f>
@@ -8927,49 +8935,49 @@
       </c>
       <c r="M41" s="128">
         <f ca="1">IF(A41="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A41,Cap!$B$18))</f>
-        <v>5.4301369863013695</v>
+        <v>5.4273972602739722</v>
       </c>
       <c r="N41" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9984092377614626</v>
+        <v>6.0054415547790114</v>
       </c>
       <c r="O41" s="128">
         <f ca="1">IF(L41="#N/A",L41,IF(Cap!$B$17="Standard",L41*G41*M41,L41*G41*M41/(1+L41*M41)))</f>
-        <v>41.304990203628833</v>
+        <v>41.252358165313574</v>
       </c>
       <c r="P41" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5790138849169013</v>
+        <v>4.5856171209658374</v>
       </c>
       <c r="T41" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45198</v>
+        <v>45625</v>
       </c>
       <c r="U41" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45198</v>
+        <v>45625</v>
       </c>
       <c r="V41" s="77">
         <f ca="1">IF(C41="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C41,"ACT/365.FIXED"))</f>
-        <v>5.5178082191780824</v>
+        <v>5.515068493150685</v>
       </c>
       <c r="Y41" s="2">
         <f ca="1"/>
-        <v>45198</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45230</v>
+        <v>45657</v>
       </c>
       <c r="B42" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45260</v>
+        <v>45688</v>
       </c>
       <c r="C42" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B42,A42)</f>
-        <v>45260</v>
+        <v>45688</v>
       </c>
       <c r="D42" s="79">
         <v>0</v>
@@ -8979,11 +8987,11 @@
       </c>
       <c r="F42" s="77">
         <f t="array" aca="1" ref="F42" ca="1">IF(A42&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N42, Cap!$G$12, Cap!$G$13,M42 ),0)</f>
-        <v>6.0316191168860742</v>
+        <v>6.0400183554934825</v>
       </c>
       <c r="G42" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>134.09962205825536</v>
+        <v>133.98857504071336</v>
       </c>
       <c r="H42" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -8991,43 +8999,43 @@
       </c>
       <c r="I42" s="128">
         <f ca="1">IF(C42="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C42))</f>
-        <v>0.75960562997379688</v>
+        <v>0.75967994656749771</v>
       </c>
       <c r="J42" s="128">
         <f ca="1">IF(C42="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A42))</f>
-        <v>0.76337137121136744</v>
+        <v>0.76357701247074727</v>
       </c>
       <c r="K42" s="128">
         <f ca="1">IF(C42="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B42))</f>
-        <v>0.75960562997379688</v>
+        <v>0.75967994656749771</v>
       </c>
       <c r="L42" s="128">
         <f ca="1">IF(A42="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A42, B42,Cap!$B$18))</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M42" s="128">
         <f ca="1">IF(A42="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A42,Cap!$B$18))</f>
-        <v>5.5178082191780824</v>
+        <v>5.515068493150685</v>
       </c>
       <c r="N42" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0316191168860742</v>
+        <v>6.0400183554934825</v>
       </c>
       <c r="O42" s="128">
         <f ca="1">IF(L42="#N/A",L42,IF(Cap!$B$17="Standard",L42*G42*M42,L42*G42*M42/(1+L42*M42)))</f>
-        <v>41.840993388725714</v>
+        <v>42.740758215928381</v>
       </c>
       <c r="P42" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5816518390442429</v>
+        <v>4.5884808215679946</v>
       </c>
       <c r="T42" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45230</v>
+        <v>45657</v>
       </c>
       <c r="U42" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45230</v>
+        <v>45657</v>
       </c>
       <c r="V42" s="77">
         <f ca="1">IF(C42="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C42,"ACT/365.FIXED"))</f>
@@ -9035,21 +9043,21 @@
       </c>
       <c r="Y42" s="2">
         <f ca="1"/>
-        <v>45230</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45260</v>
+        <v>45688</v>
       </c>
       <c r="B43" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45289</v>
+        <v>45716</v>
       </c>
       <c r="C43" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B43,A43)</f>
-        <v>45289</v>
+        <v>45716</v>
       </c>
       <c r="D43" s="79">
         <v>0</v>
@@ -9059,11 +9067,11 @@
       </c>
       <c r="F43" s="77">
         <f t="array" aca="1" ref="F43" ca="1">IF(A43&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N43, Cap!$G$12, Cap!$G$13,M43 ),0)</f>
-        <v>6.0636543674321501</v>
+        <v>6.0713477663985165</v>
       </c>
       <c r="G43" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>140.16327642568751</v>
+        <v>140.05992280711186</v>
       </c>
       <c r="H43" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9071,19 +9079,19 @@
       </c>
       <c r="I43" s="128">
         <f ca="1">IF(C43="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C43))</f>
-        <v>0.75596362553412277</v>
+        <v>0.75615816090952792</v>
       </c>
       <c r="J43" s="128">
         <f ca="1">IF(C43="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A43))</f>
-        <v>0.75960562997379688</v>
+        <v>0.75967994656749771</v>
       </c>
       <c r="K43" s="128">
         <f ca="1">IF(C43="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B43))</f>
-        <v>0.75596362553412277</v>
+        <v>0.75615816090952792</v>
       </c>
       <c r="L43" s="128">
         <f ca="1">IF(A43="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A43, B43,Cap!$B$18))</f>
-        <v>7.9452054794520555E-2</v>
+        <v>7.6712328767123292E-2</v>
       </c>
       <c r="M43" s="128">
         <f ca="1">IF(A43="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A43,Cap!$B$18))</f>
@@ -9091,45 +9099,45 @@
       </c>
       <c r="N43" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0636543674321501</v>
+        <v>6.0713477663985165</v>
       </c>
       <c r="O43" s="128">
         <f ca="1">IF(L43="#N/A",L43,IF(Cap!$B$17="Standard",L43*G43*M43,L43*G43*M43/(1+L43*M43)))</f>
-        <v>43.159871239157468</v>
+        <v>42.087765228354044</v>
       </c>
       <c r="P43" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5839021395898261</v>
+        <v>4.5908991612820724</v>
       </c>
       <c r="T43" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45260</v>
+        <v>45688</v>
       </c>
       <c r="U43" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45260</v>
+        <v>45688</v>
       </c>
       <c r="V43" s="77">
         <f ca="1">IF(C43="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C43,"ACT/365.FIXED"))</f>
-        <v>5.6794520547945204</v>
+        <v>5.6767123287671231</v>
       </c>
       <c r="Y43" s="2">
         <f ca="1"/>
-        <v>45260</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45289</v>
+        <v>45716</v>
       </c>
       <c r="B44" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45322</v>
+        <v>45747</v>
       </c>
       <c r="C44" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B44,A44)</f>
-        <v>45322</v>
+        <v>45747</v>
       </c>
       <c r="D44" s="79">
         <v>0</v>
@@ -9139,11 +9147,11 @@
       </c>
       <c r="F44" s="77">
         <f t="array" aca="1" ref="F44" ca="1">IF(A44&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N44, Cap!$G$12, Cap!$G$13,M44 ),0)</f>
-        <v>6.0998747121532908</v>
+        <v>6.1057015431909614</v>
       </c>
       <c r="G44" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>146.26315113784079</v>
+        <v>146.16562435030283</v>
       </c>
       <c r="H44" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9151,65 +9159,65 @@
       </c>
       <c r="I44" s="128">
         <f ca="1">IF(C44="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C44))</f>
-        <v>0.75181738631557105</v>
+        <v>0.75225720754562053</v>
       </c>
       <c r="J44" s="128">
         <f ca="1">IF(C44="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A44))</f>
-        <v>0.75596362553412277</v>
+        <v>0.75615816090952792</v>
       </c>
       <c r="K44" s="128">
         <f ca="1">IF(C44="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B44))</f>
-        <v>0.75181738631557105</v>
+        <v>0.75225720754562053</v>
       </c>
       <c r="L44" s="128">
         <f ca="1">IF(A44="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A44, B44,Cap!$B$18))</f>
-        <v>9.0410958904109592E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M44" s="128">
         <f ca="1">IF(A44="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A44,Cap!$B$18))</f>
-        <v>5.6794520547945204</v>
+        <v>5.6767123287671231</v>
       </c>
       <c r="N44" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0998747121532908</v>
+        <v>6.1057015431909614</v>
       </c>
       <c r="O44" s="128">
         <f ca="1">IF(L44="#N/A",L44,IF(Cap!$B$17="Standard",L44*G44*M44,L44*G44*M44/(1+L44*M44)))</f>
-        <v>49.623158327407829</v>
+        <v>47.54711346403851</v>
       </c>
       <c r="P44" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5859918629435334</v>
+        <v>4.593057992987819</v>
       </c>
       <c r="T44" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45289</v>
+        <v>45716</v>
       </c>
       <c r="U44" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45289</v>
+        <v>45716</v>
       </c>
       <c r="V44" s="77">
         <f ca="1">IF(C44="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C44,"ACT/365.FIXED"))</f>
-        <v>5.7698630136986298</v>
+        <v>5.7616438356164386</v>
       </c>
       <c r="Y44" s="2">
         <f ca="1"/>
-        <v>45289</v>
+        <v>45716</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45322</v>
+        <v>45747</v>
       </c>
       <c r="B45" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45351</v>
+        <v>45777</v>
       </c>
       <c r="C45" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B45,A45)</f>
-        <v>45351</v>
+        <v>45777</v>
       </c>
       <c r="D45" s="79">
         <v>0</v>
@@ -9219,11 +9227,11 @@
       </c>
       <c r="F45" s="77">
         <f t="array" aca="1" ref="F45" ca="1">IF(A45&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N45, Cap!$G$12, Cap!$G$13,M45 ),0)</f>
-        <v>6.1320245845374393</v>
+        <v>6.1391392374866172</v>
       </c>
       <c r="G45" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>152.39517572237824</v>
+        <v>152.30476358778947</v>
       </c>
       <c r="H45" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9231,65 +9239,65 @@
       </c>
       <c r="I45" s="128">
         <f ca="1">IF(C45="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C45))</f>
-        <v>0.74817227637110173</v>
+        <v>0.74848047397335016</v>
       </c>
       <c r="J45" s="128">
         <f ca="1">IF(C45="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A45))</f>
-        <v>0.75181738631557105</v>
+        <v>0.75225720754562053</v>
       </c>
       <c r="K45" s="128">
         <f ca="1">IF(C45="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B45))</f>
-        <v>0.74817227637110173</v>
+        <v>0.74848047397335016</v>
       </c>
       <c r="L45" s="128">
         <f ca="1">IF(A45="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A45, B45,Cap!$B$18))</f>
-        <v>7.9452054794520555E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="M45" s="128">
         <f ca="1">IF(A45="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A45,Cap!$B$18))</f>
-        <v>5.7698630136986298</v>
+        <v>5.7616438356164386</v>
       </c>
       <c r="N45" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1320245845374393</v>
+        <v>6.1391392374866172</v>
       </c>
       <c r="O45" s="128">
         <f ca="1">IF(L45="#N/A",L45,IF(Cap!$B$17="Standard",L45*G45*M45,L45*G45*M45/(1+L45*M45)))</f>
-        <v>47.902371921978641</v>
+        <v>48.946374626256969</v>
       </c>
       <c r="P45" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5878107921769349</v>
+        <v>4.5950258462623745</v>
       </c>
       <c r="T45" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45322</v>
+        <v>45747</v>
       </c>
       <c r="U45" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45322</v>
+        <v>45747</v>
       </c>
       <c r="V45" s="77">
         <f ca="1">IF(C45="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C45,"ACT/365.FIXED"))</f>
-        <v>5.8493150684931505</v>
+        <v>5.8438356164383558</v>
       </c>
       <c r="Y45" s="2">
         <f ca="1"/>
-        <v>45322</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45351</v>
+        <v>45777</v>
       </c>
       <c r="B46" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45443</v>
+        <v>45869</v>
       </c>
       <c r="C46" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B46,A46)</f>
-        <v>45443</v>
+        <v>45869</v>
       </c>
       <c r="D46" s="79">
         <v>0</v>
@@ -9299,11 +9307,11 @@
       </c>
       <c r="F46" s="77">
         <f t="array" aca="1" ref="F46" ca="1">IF(A46&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N46, Cap!$G$12, Cap!$G$13,M46 ),0)</f>
-        <v>6.1320608903688383</v>
+        <v>6.1415140777445272</v>
       </c>
       <c r="G46" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>158.52723661274709</v>
+        <v>158.44627766553398</v>
       </c>
       <c r="H46" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9311,15 +9319,15 @@
       </c>
       <c r="I46" s="128">
         <f ca="1">IF(C46="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C46))</f>
-        <v>0.73678442324588111</v>
+        <v>0.73707063478043933</v>
       </c>
       <c r="J46" s="128">
         <f ca="1">IF(C46="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A46))</f>
-        <v>0.74817227637110173</v>
+        <v>0.74848047397335016</v>
       </c>
       <c r="K46" s="128">
         <f ca="1">IF(C46="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B46))</f>
-        <v>0.73678442324588111</v>
+        <v>0.73707063478043933</v>
       </c>
       <c r="L46" s="128">
         <f ca="1">IF(A46="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A46, B46,Cap!$B$18))</f>
@@ -9327,49 +9335,49 @@
       </c>
       <c r="M46" s="128">
         <f ca="1">IF(A46="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A46,Cap!$B$18))</f>
-        <v>5.8493150684931505</v>
+        <v>5.8438356164383558</v>
       </c>
       <c r="N46" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1320608903688383</v>
+        <v>6.1415140777445272</v>
       </c>
       <c r="O46" s="128">
         <f ca="1">IF(L46="#N/A",L46,IF(Cap!$B$17="Standard",L46*G46*M46,L46*G46*M46/(1+L46*M46)))</f>
-        <v>94.458947702758394</v>
+        <v>94.374944967609906</v>
       </c>
       <c r="P46" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5180069464190291</v>
+        <v>4.5267296797961629</v>
       </c>
       <c r="T46" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45351</v>
+        <v>45777</v>
       </c>
       <c r="U46" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45351</v>
+        <v>45777</v>
       </c>
       <c r="V46" s="77">
         <f ca="1">IF(C46="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C46,"ACT/365.FIXED"))</f>
-        <v>6.1013698630136988</v>
+        <v>6.095890410958904</v>
       </c>
       <c r="Y46" s="2">
         <f ca="1"/>
-        <v>45351</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45443</v>
+        <v>45869</v>
       </c>
       <c r="B47" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45534</v>
+        <v>45961</v>
       </c>
       <c r="C47" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B47,A47)</f>
-        <v>45534</v>
+        <v>45961</v>
       </c>
       <c r="D47" s="79">
         <v>0</v>
@@ -9379,11 +9387,11 @@
       </c>
       <c r="F47" s="77">
         <f t="array" aca="1" ref="F47" ca="1">IF(A47&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N47, Cap!$G$12, Cap!$G$13,M47 ),0)</f>
-        <v>6.0304125568946922</v>
+        <v>6.0253660575106087</v>
       </c>
       <c r="G47" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>164.55764916964179</v>
+        <v>164.47164372304459</v>
       </c>
       <c r="H47" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9391,65 +9399,65 @@
       </c>
       <c r="I47" s="128">
         <f ca="1">IF(C47="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C47))</f>
-        <v>0.72587114854755574</v>
+        <v>0.72604404126618494</v>
       </c>
       <c r="J47" s="128">
         <f ca="1">IF(C47="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A47))</f>
-        <v>0.73678442324588111</v>
+        <v>0.73707063478043933</v>
       </c>
       <c r="K47" s="128">
         <f ca="1">IF(C47="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B47))</f>
-        <v>0.72587114854755574</v>
+        <v>0.72604404126618494</v>
       </c>
       <c r="L47" s="128">
         <f ca="1">IF(A47="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A47, B47,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M47" s="128">
         <f ca="1">IF(A47="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A47,Cap!$B$18))</f>
-        <v>6.1013698630136988</v>
+        <v>6.095890410958904</v>
       </c>
       <c r="N47" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0304125568946922</v>
+        <v>6.0253660575106087</v>
       </c>
       <c r="O47" s="128">
         <f ca="1">IF(L47="#N/A",L47,IF(Cap!$B$17="Standard",L47*G47*M47,L47*G47*M47/(1+L47*M47)))</f>
-        <v>99.287129133958061</v>
+        <v>99.629638144876012</v>
       </c>
       <c r="P47" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3773024888887528</v>
+        <v>4.3746811225031026</v>
       </c>
       <c r="T47" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>45443</v>
+        <v>45869</v>
       </c>
       <c r="U47" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45443</v>
+        <v>45869</v>
       </c>
       <c r="V47" s="77">
         <f ca="1">IF(C47="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C47,"ACT/365.FIXED"))</f>
-        <v>6.3506849315068497</v>
+        <v>6.3479452054794523</v>
       </c>
       <c r="Y47" s="2">
         <f ca="1"/>
-        <v>45443</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45534</v>
+        <v>45961</v>
       </c>
       <c r="B48" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45625</v>
+        <v>46052</v>
       </c>
       <c r="C48" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B48,A48)</f>
-        <v>45625</v>
+        <v>46052</v>
       </c>
       <c r="D48" s="79">
         <v>0</v>
@@ -9459,11 +9467,11 @@
       </c>
       <c r="F48" s="77">
         <f t="array" aca="1" ref="F48" ca="1">IF(A48&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N48, Cap!$G$12, Cap!$G$13,M48 ),0)</f>
-        <v>6.1083526166148578</v>
+        <v>6.1029853756250851</v>
       </c>
       <c r="G48" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>170.66600178625666</v>
+        <v>170.57462909866967</v>
       </c>
       <c r="H48" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9471,15 +9479,15 @@
       </c>
       <c r="I48" s="128">
         <f ca="1">IF(C48="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C48))</f>
-        <v>0.71498264671194423</v>
+        <v>0.71516237221432888</v>
       </c>
       <c r="J48" s="128">
         <f ca="1">IF(C48="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A48))</f>
-        <v>0.72587114854755574</v>
+        <v>0.72604404126618494</v>
       </c>
       <c r="K48" s="128">
         <f ca="1">IF(C48="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B48))</f>
-        <v>0.71498264671194423</v>
+        <v>0.71516237221432888</v>
       </c>
       <c r="L48" s="128">
         <f ca="1">IF(A48="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A48, B48,Cap!$B$18))</f>
@@ -9487,49 +9495,49 @@
       </c>
       <c r="M48" s="128">
         <f ca="1">IF(A48="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A48,Cap!$B$18))</f>
-        <v>6.3506849315068497</v>
+        <v>6.3479452054794523</v>
       </c>
       <c r="N48" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1083526166148578</v>
+        <v>6.1029853756250851</v>
       </c>
       <c r="O48" s="128">
         <f ca="1">IF(L48="#N/A",L48,IF(Cap!$B$17="Standard",L48*G48*M48,L48*G48*M48/(1+L48*M48)))</f>
-        <v>104.60143909946571</v>
+        <v>104.52797327759077</v>
       </c>
       <c r="P48" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3673661208771213</v>
+        <v>4.3646254988213933</v>
       </c>
       <c r="T48" s="75">
         <f t="shared" ref="T48:T79" ca="1" si="8">IF(ISERROR(U48), "#N/A",IF(U48="","#N/A",U48+D48))</f>
-        <v>45534</v>
+        <v>45961</v>
       </c>
       <c r="U48" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45534</v>
+        <v>45961</v>
       </c>
       <c r="V48" s="77">
         <f ca="1">IF(C48="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C48,"ACT/365.FIXED"))</f>
-        <v>6.6</v>
+        <v>6.5972602739726032</v>
       </c>
       <c r="Y48" s="2">
         <f ca="1"/>
-        <v>45534</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45625</v>
+        <v>46052</v>
       </c>
       <c r="B49" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45716</v>
+        <v>46142</v>
       </c>
       <c r="C49" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B49,A49)</f>
-        <v>45716</v>
+        <v>46142</v>
       </c>
       <c r="D49" s="79">
         <v>0</v>
@@ -9539,11 +9547,11 @@
       </c>
       <c r="F49" s="77">
         <f t="array" aca="1" ref="F49" ca="1">IF(A49&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N49, Cap!$G$12, Cap!$G$13,M49 ),0)</f>
-        <v>6.186296365889473</v>
+        <v>6.1797289067872052</v>
       </c>
       <c r="G49" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>176.85229815214612</v>
+        <v>176.75435800545688</v>
       </c>
       <c r="H49" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9551,65 +9559,65 @@
       </c>
       <c r="I49" s="128">
         <f ca="1">IF(C49="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C49))</f>
-        <v>0.70412270243564745</v>
+        <v>0.70442851055272626</v>
       </c>
       <c r="J49" s="128">
         <f ca="1">IF(C49="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A49))</f>
-        <v>0.71498264671194423</v>
+        <v>0.71516237221432888</v>
       </c>
       <c r="K49" s="128">
         <f ca="1">IF(C49="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B49))</f>
-        <v>0.70412270243564745</v>
+        <v>0.70442851055272626</v>
       </c>
       <c r="L49" s="128">
         <f ca="1">IF(A49="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A49, B49,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="M49" s="128">
         <f ca="1">IF(A49="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A49,Cap!$B$18))</f>
-        <v>6.6</v>
+        <v>6.5972602739726032</v>
       </c>
       <c r="N49" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.186296365889473</v>
+        <v>6.1797289067872052</v>
       </c>
       <c r="O49" s="128">
         <f ca="1">IF(L49="#N/A",L49,IF(Cap!$B$17="Standard",L49*G49*M49,L49*G49*M49/(1+L49*M49)))</f>
-        <v>110.00154336182577</v>
+        <v>109.46349988410354</v>
       </c>
       <c r="P49" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3559117152179203</v>
+        <v>4.3531772294277387</v>
       </c>
       <c r="T49" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>45625</v>
+        <v>46052</v>
       </c>
       <c r="U49" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45625</v>
+        <v>46052</v>
       </c>
       <c r="V49" s="77">
         <f ca="1">IF(C49="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C49,"ACT/365.FIXED"))</f>
-        <v>6.8493150684931505</v>
+        <v>6.8438356164383558</v>
       </c>
       <c r="Y49" s="2">
         <f ca="1"/>
-        <v>45625</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45716</v>
+        <v>46142</v>
       </c>
       <c r="B50" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45807</v>
+        <v>46234</v>
       </c>
       <c r="C50" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B50,A50)</f>
-        <v>45807</v>
+        <v>46234</v>
       </c>
       <c r="D50" s="79">
         <v>0</v>
@@ -9619,11 +9627,11 @@
       </c>
       <c r="F50" s="77">
         <f t="array" aca="1" ref="F50" ca="1">IF(A50&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N50, Cap!$G$12, Cap!$G$13,M50 ),0)</f>
-        <v>6.170892696788326</v>
+        <v>6.1722797050743843</v>
       </c>
       <c r="G50" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>183.02319084893443</v>
+        <v>182.92663771053125</v>
       </c>
       <c r="H50" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9631,65 +9639,65 @@
       </c>
       <c r="I50" s="128">
         <f ca="1">IF(C50="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C50))</f>
-        <v>0.69345393763085383</v>
+        <v>0.69363723065858984</v>
       </c>
       <c r="J50" s="128">
         <f ca="1">IF(C50="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A50))</f>
-        <v>0.70412270243564745</v>
+        <v>0.70442851055272626</v>
       </c>
       <c r="K50" s="128">
         <f ca="1">IF(C50="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B50))</f>
-        <v>0.69345393763085383</v>
+        <v>0.69363723065858984</v>
       </c>
       <c r="L50" s="128">
         <f ca="1">IF(A50="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A50, B50,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M50" s="128">
         <f ca="1">IF(A50="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A50,Cap!$B$18))</f>
-        <v>6.8493150684931505</v>
+        <v>6.8438356164383558</v>
       </c>
       <c r="N50" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.170892696788326</v>
+        <v>6.1722797050743843</v>
       </c>
       <c r="O50" s="128">
         <f ca="1">IF(L50="#N/A",L50,IF(Cap!$B$17="Standard",L50*G50*M50,L50*G50*M50/(1+L50*M50)))</f>
-        <v>115.42802943553285</v>
+        <v>115.7981279582291</v>
       </c>
       <c r="P50" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2792298392853434</v>
+        <v>4.2813230014780137</v>
       </c>
       <c r="T50" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>45716</v>
+        <v>46142</v>
       </c>
       <c r="U50" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45716</v>
+        <v>46142</v>
       </c>
       <c r="V50" s="77">
         <f ca="1">IF(C50="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C50,"ACT/365.FIXED"))</f>
-        <v>7.0986301369863014</v>
+        <v>7.095890410958904</v>
       </c>
       <c r="Y50" s="2">
         <f ca="1"/>
-        <v>45716</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45807</v>
+        <v>46234</v>
       </c>
       <c r="B51" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45898</v>
+        <v>46325</v>
       </c>
       <c r="C51" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B51,A51)</f>
-        <v>45898</v>
+        <v>46325</v>
       </c>
       <c r="D51" s="79">
         <v>0</v>
@@ -9699,11 +9707,11 @@
       </c>
       <c r="F51" s="77">
         <f t="array" aca="1" ref="F51" ca="1">IF(A51&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N51, Cap!$G$12, Cap!$G$13,M51 ),0)</f>
-        <v>6.064166699783053</v>
+        <v>6.0594681179608418</v>
       </c>
       <c r="G51" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>189.08735754871748</v>
+        <v>188.9861058284921</v>
       </c>
       <c r="H51" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9711,15 +9719,15 @@
       </c>
       <c r="I51" s="128">
         <f ca="1">IF(C51="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C51))</f>
-        <v>0.68312583911457669</v>
+        <v>0.68331428754264534</v>
       </c>
       <c r="J51" s="128">
         <f ca="1">IF(C51="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A51))</f>
-        <v>0.69345393763085383</v>
+        <v>0.69363723065858984</v>
       </c>
       <c r="K51" s="128">
         <f ca="1">IF(C51="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B51))</f>
-        <v>0.68312583911457669</v>
+        <v>0.68331428754264534</v>
       </c>
       <c r="L51" s="128">
         <f ca="1">IF(A51="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A51, B51,Cap!$B$18))</f>
@@ -9727,49 +9735,49 @@
       </c>
       <c r="M51" s="128">
         <f ca="1">IF(A51="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A51,Cap!$B$18))</f>
-        <v>7.0986301369863014</v>
+        <v>7.095890410958904</v>
       </c>
       <c r="N51" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.064166699783053</v>
+        <v>6.0594681179608418</v>
       </c>
       <c r="O51" s="128">
         <f ca="1">IF(L51="#N/A",L51,IF(Cap!$B$17="Standard",L51*G51*M51,L51*G51*M51/(1+L51*M51)))</f>
-        <v>120.81973260650004</v>
+        <v>120.73820604398658</v>
       </c>
       <c r="P51" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1425889653199715</v>
+        <v>4.1405211399117867</v>
       </c>
       <c r="T51" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>45807</v>
+        <v>46234</v>
       </c>
       <c r="U51" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45807</v>
+        <v>46234</v>
       </c>
       <c r="V51" s="77">
         <f ca="1">IF(C51="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C51,"ACT/365.FIXED"))</f>
-        <v>7.3479452054794523</v>
+        <v>7.3452054794520549</v>
       </c>
       <c r="Y51" s="2">
         <f ca="1"/>
-        <v>45807</v>
+        <v>46234</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>46325</v>
       </c>
       <c r="B52" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>45989</v>
+        <v>46416</v>
       </c>
       <c r="C52" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B52,A52)</f>
-        <v>45989</v>
+        <v>46416</v>
       </c>
       <c r="D52" s="79">
         <v>0</v>
@@ -9779,11 +9787,11 @@
       </c>
       <c r="F52" s="77">
         <f t="array" aca="1" ref="F52" ca="1">IF(A52&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N52, Cap!$G$12, Cap!$G$13,M52 ),0)</f>
-        <v>6.1234751200138806</v>
+        <v>6.1185988771461179</v>
       </c>
       <c r="G52" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>195.21083266873137</v>
+        <v>195.10470470563823</v>
       </c>
       <c r="H52" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9791,15 +9799,15 @@
       </c>
       <c r="I52" s="128">
         <f ca="1">IF(C52="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C52))</f>
-        <v>0.67285355467260399</v>
+        <v>0.6730472287037147</v>
       </c>
       <c r="J52" s="128">
         <f ca="1">IF(C52="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A52))</f>
-        <v>0.68312583911457669</v>
+        <v>0.68331428754264534</v>
       </c>
       <c r="K52" s="128">
         <f ca="1">IF(C52="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B52))</f>
-        <v>0.67285355467260399</v>
+        <v>0.6730472287037147</v>
       </c>
       <c r="L52" s="128">
         <f ca="1">IF(A52="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A52, B52,Cap!$B$18))</f>
@@ -9807,49 +9815,49 @@
       </c>
       <c r="M52" s="128">
         <f ca="1">IF(A52="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A52,Cap!$B$18))</f>
-        <v>7.3479452054794523</v>
+        <v>7.3452054794520549</v>
       </c>
       <c r="N52" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1234751200138806</v>
+        <v>6.1185988771461179</v>
       </c>
       <c r="O52" s="128">
         <f ca="1">IF(L52="#N/A",L52,IF(Cap!$B$17="Standard",L52*G52*M52,L52*G52*M52/(1+L52*M52)))</f>
-        <v>126.27932116080309</v>
+        <v>126.19404742292936</v>
       </c>
       <c r="P52" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1202020014505898</v>
+        <v>4.1181060178128552</v>
       </c>
       <c r="T52" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>46325</v>
       </c>
       <c r="U52" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>46325</v>
       </c>
       <c r="V52" s="77">
         <f ca="1">IF(C52="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C52,"ACT/365.FIXED"))</f>
-        <v>7.5972602739726032</v>
+        <v>7.5945205479452058</v>
       </c>
       <c r="Y52" s="2">
         <f ca="1"/>
-        <v>45898</v>
+        <v>46325</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>45989</v>
+        <v>46416</v>
       </c>
       <c r="B53" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46080</v>
+        <v>46507</v>
       </c>
       <c r="C53" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B53,A53)</f>
-        <v>46080</v>
+        <v>46507</v>
       </c>
       <c r="D53" s="79">
         <v>0</v>
@@ -9859,11 +9867,11 @@
       </c>
       <c r="F53" s="77">
         <f t="array" aca="1" ref="F53" ca="1">IF(A53&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N53, Cap!$G$12, Cap!$G$13,M53 ),0)</f>
-        <v>6.1827856772169314</v>
+        <v>6.1777317605607358</v>
       </c>
       <c r="G53" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>201.39361834594831</v>
+        <v>201.28243646619896</v>
       </c>
       <c r="H53" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9871,15 +9879,15 @@
       </c>
       <c r="I53" s="128">
         <f ca="1">IF(C53="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C53))</f>
-        <v>0.66263922523976337</v>
+        <v>0.66283818427136421</v>
       </c>
       <c r="J53" s="128">
         <f ca="1">IF(C53="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A53))</f>
-        <v>0.67285355467260399</v>
+        <v>0.6730472287037147</v>
       </c>
       <c r="K53" s="128">
         <f ca="1">IF(C53="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B53))</f>
-        <v>0.66263922523976337</v>
+        <v>0.66283818427136421</v>
       </c>
       <c r="L53" s="128">
         <f ca="1">IF(A53="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A53, B53,Cap!$B$18))</f>
@@ -9887,49 +9895,49 @@
       </c>
       <c r="M53" s="128">
         <f ca="1">IF(A53="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A53,Cap!$B$18))</f>
-        <v>7.5972602739726032</v>
+        <v>7.5945205479452058</v>
       </c>
       <c r="N53" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1827856772169314</v>
+        <v>6.1777317605607358</v>
       </c>
       <c r="O53" s="128">
         <f ca="1">IF(L53="#N/A",L53,IF(Cap!$B$17="Standard",L53*G53*M53,L53*G53*M53/(1+L53*M53)))</f>
-        <v>131.80624386430316</v>
+        <v>131.71706006706398</v>
       </c>
       <c r="P53" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0969563109745328</v>
+        <v>4.0948365030856166</v>
       </c>
       <c r="T53" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>45989</v>
+        <v>46416</v>
       </c>
       <c r="U53" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>45989</v>
+        <v>46416</v>
       </c>
       <c r="V53" s="77">
         <f ca="1">IF(C53="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C53,"ACT/365.FIXED"))</f>
-        <v>7.8465753424657532</v>
+        <v>7.8438356164383558</v>
       </c>
       <c r="Y53" s="2">
         <f ca="1"/>
-        <v>45989</v>
+        <v>46416</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46080</v>
+        <v>46507</v>
       </c>
       <c r="B54" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46171</v>
+        <v>46598</v>
       </c>
       <c r="C54" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B54,A54)</f>
-        <v>46171</v>
+        <v>46598</v>
       </c>
       <c r="D54" s="79">
         <v>0</v>
@@ -9939,11 +9947,11 @@
       </c>
       <c r="F54" s="77">
         <f t="array" aca="1" ref="F54" ca="1">IF(A54&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N54, Cap!$G$12, Cap!$G$13,M54 ),0)</f>
-        <v>6.1189944508577083</v>
+        <v>6.1244300155913294</v>
       </c>
       <c r="G54" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>207.51261279680602</v>
+        <v>207.4068664817903</v>
       </c>
       <c r="H54" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -9951,15 +9959,15 @@
       </c>
       <c r="I54" s="128">
         <f ca="1">IF(C54="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C54))</f>
-        <v>0.65268218310955739</v>
+        <v>0.65286943798140706</v>
       </c>
       <c r="J54" s="128">
         <f ca="1">IF(C54="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A54))</f>
-        <v>0.66263922523976337</v>
+        <v>0.66283818427136421</v>
       </c>
       <c r="K54" s="128">
         <f ca="1">IF(C54="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B54))</f>
-        <v>0.65268218310955739</v>
+        <v>0.65286943798140706</v>
       </c>
       <c r="L54" s="128">
         <f ca="1">IF(A54="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A54, B54,Cap!$B$18))</f>
@@ -9967,49 +9975,49 @@
       </c>
       <c r="M54" s="128">
         <f ca="1">IF(A54="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A54,Cap!$B$18))</f>
-        <v>7.8465753424657532</v>
+        <v>7.8438356164383558</v>
       </c>
       <c r="N54" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1189944508577083</v>
+        <v>6.1244300155913294</v>
       </c>
       <c r="O54" s="128">
         <f ca="1">IF(L54="#N/A",L54,IF(Cap!$B$17="Standard",L54*G54*M54,L54*G54*M54/(1+L54*M54)))</f>
-        <v>137.31853374657487</v>
+        <v>137.23234358438501</v>
       </c>
       <c r="P54" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9937586566210763</v>
+        <v>3.9984531822355711</v>
       </c>
       <c r="T54" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46080</v>
+        <v>46507</v>
       </c>
       <c r="U54" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46080</v>
+        <v>46507</v>
       </c>
       <c r="V54" s="77">
         <f ca="1">IF(C54="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C54,"ACT/365.FIXED"))</f>
-        <v>8.0958904109589049</v>
+        <v>8.0931506849315067</v>
       </c>
       <c r="Y54" s="2">
         <f ca="1"/>
-        <v>46080</v>
+        <v>46507</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46171</v>
+        <v>46598</v>
       </c>
       <c r="B55" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46265</v>
+        <v>46689</v>
       </c>
       <c r="C55" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B55,A55)</f>
-        <v>46265</v>
+        <v>46689</v>
       </c>
       <c r="D55" s="79">
         <v>0</v>
@@ -10019,11 +10027,11 @@
       </c>
       <c r="F55" s="77">
         <f t="array" aca="1" ref="F55" ca="1">IF(A55&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N55, Cap!$G$12, Cap!$G$13,M55 ),0)</f>
-        <v>5.938913182928105</v>
+        <v>5.9289426132869787</v>
       </c>
       <c r="G55" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>213.45152597973413</v>
+        <v>213.33580909507728</v>
       </c>
       <c r="H55" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10031,65 +10039,65 @@
       </c>
       <c r="I55" s="128">
         <f ca="1">IF(C55="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C55))</f>
-        <v>0.64284996307360631</v>
+        <v>0.64335946098214858</v>
       </c>
       <c r="J55" s="128">
         <f ca="1">IF(C55="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A55))</f>
-        <v>0.65268218310955739</v>
+        <v>0.65286943798140706</v>
       </c>
       <c r="K55" s="128">
         <f ca="1">IF(C55="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B55))</f>
-        <v>0.64284996307360631</v>
+        <v>0.64335946098214858</v>
       </c>
       <c r="L55" s="128">
         <f ca="1">IF(A55="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A55, B55,Cap!$B$18))</f>
-        <v>0.25753424657534246</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M55" s="128">
         <f ca="1">IF(A55="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A55,Cap!$B$18))</f>
-        <v>8.0958904109589049</v>
+        <v>8.0931506849315067</v>
       </c>
       <c r="N55" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.938913182928105</v>
+        <v>5.9289426132869787</v>
       </c>
       <c r="O55" s="128">
         <f ca="1">IF(L55="#N/A",L55,IF(Cap!$B$17="Standard",L55*G55*M55,L55*G55*M55/(1+L55*M55)))</f>
-        <v>144.26070967138469</v>
+        <v>142.64201280493708</v>
       </c>
       <c r="P55" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8178301203426859</v>
+        <v>3.8144413238784018</v>
       </c>
       <c r="T55" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46171</v>
+        <v>46598</v>
       </c>
       <c r="U55" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46171</v>
+        <v>46598</v>
       </c>
       <c r="V55" s="77">
         <f ca="1">IF(C55="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C55,"ACT/365.FIXED"))</f>
-        <v>8.3534246575342461</v>
+        <v>8.3424657534246567</v>
       </c>
       <c r="Y55" s="2">
         <f ca="1"/>
-        <v>46171</v>
+        <v>46598</v>
       </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46265</v>
+        <v>46689</v>
       </c>
       <c r="B56" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46356</v>
+        <v>46783</v>
       </c>
       <c r="C56" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B56,A56)</f>
-        <v>46356</v>
+        <v>46783</v>
       </c>
       <c r="D56" s="79">
         <v>0</v>
@@ -10099,11 +10107,11 @@
       </c>
       <c r="F56" s="77">
         <f t="array" aca="1" ref="F56" ca="1">IF(A56&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N56, Cap!$G$12, Cap!$G$13,M56 ),0)</f>
-        <v>5.9758526795243867</v>
+        <v>5.9684208437815842</v>
       </c>
       <c r="G56" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>219.42737865925852</v>
+        <v>219.30422993885887</v>
       </c>
       <c r="H56" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10111,65 +10119,65 @@
       </c>
       <c r="I56" s="128">
         <f ca="1">IF(C56="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C56))</f>
-        <v>0.63341293304728208</v>
+        <v>0.63362025658311583</v>
       </c>
       <c r="J56" s="128">
         <f ca="1">IF(C56="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A56))</f>
-        <v>0.64284996307360631</v>
+        <v>0.64335946098214858</v>
       </c>
       <c r="K56" s="128">
         <f ca="1">IF(C56="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B56))</f>
-        <v>0.63341293304728208</v>
+        <v>0.63362025658311583</v>
       </c>
       <c r="L56" s="128">
         <f ca="1">IF(A56="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A56, B56,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M56" s="128">
         <f ca="1">IF(A56="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A56,Cap!$B$18))</f>
-        <v>8.3534246575342461</v>
+        <v>8.3424657534246567</v>
       </c>
       <c r="N56" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9758526795243867</v>
+        <v>5.9684208437815842</v>
       </c>
       <c r="O56" s="128">
         <f ca="1">IF(L56="#N/A",L56,IF(Cap!$B$17="Standard",L56*G56*M56,L56*G56*M56/(1+L56*M56)))</f>
-        <v>148.24561233313014</v>
+        <v>149.65002142160557</v>
       </c>
       <c r="P56" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7851823731960015</v>
+        <v>3.7817123464329039</v>
       </c>
       <c r="T56" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46265</v>
+        <v>46689</v>
       </c>
       <c r="U56" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46265</v>
+        <v>46689</v>
       </c>
       <c r="V56" s="77">
         <f ca="1">IF(C56="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C56,"ACT/365.FIXED"))</f>
-        <v>8.6027397260273979</v>
+        <v>8.6</v>
       </c>
       <c r="Y56" s="2">
         <f ca="1"/>
-        <v>46265</v>
+        <v>46689</v>
       </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46356</v>
+        <v>46783</v>
       </c>
       <c r="B57" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46444</v>
+        <v>46871</v>
       </c>
       <c r="C57" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B57,A57)</f>
-        <v>46444</v>
+        <v>46871</v>
       </c>
       <c r="D57" s="79">
         <v>0</v>
@@ -10179,11 +10187,11 @@
       </c>
       <c r="F57" s="77">
         <f t="array" aca="1" ref="F57" ca="1">IF(A57&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N57, Cap!$G$12, Cap!$G$13,M57 ),0)</f>
-        <v>6.0115118866035084</v>
+        <v>6.0028968720934479</v>
       </c>
       <c r="G57" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>225.43889054586202</v>
+        <v>225.30712681095233</v>
       </c>
       <c r="H57" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10191,15 +10199,15 @@
       </c>
       <c r="I57" s="128">
         <f ca="1">IF(C57="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C57))</f>
-        <v>0.6243637125162339</v>
+        <v>0.62458086162275395</v>
       </c>
       <c r="J57" s="128">
         <f ca="1">IF(C57="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A57))</f>
-        <v>0.63341293304728208</v>
+        <v>0.63362025658311583</v>
       </c>
       <c r="K57" s="128">
         <f ca="1">IF(C57="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B57))</f>
-        <v>0.6243637125162339</v>
+        <v>0.62458086162275395</v>
       </c>
       <c r="L57" s="128">
         <f ca="1">IF(A57="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A57, B57,Cap!$B$18))</f>
@@ -10207,49 +10215,49 @@
       </c>
       <c r="M57" s="128">
         <f ca="1">IF(A57="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A57,Cap!$B$18))</f>
-        <v>8.6027397260273979</v>
+        <v>8.6</v>
       </c>
       <c r="N57" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0115118866035084</v>
+        <v>6.0028968720934479</v>
       </c>
       <c r="O57" s="128">
         <f ca="1">IF(L57="#N/A",L57,IF(Cap!$B$17="Standard",L57*G57*M57,L57*G57*M57/(1+L57*M57)))</f>
-        <v>152.10361312098206</v>
+        <v>151.99896021619602</v>
       </c>
       <c r="P57" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7533698793552359</v>
+        <v>3.7492945006046603</v>
       </c>
       <c r="T57" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46356</v>
+        <v>46783</v>
       </c>
       <c r="U57" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46356</v>
+        <v>46783</v>
       </c>
       <c r="V57" s="77">
         <f ca="1">IF(C57="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C57,"ACT/365.FIXED"))</f>
-        <v>8.8438356164383567</v>
+        <v>8.8410958904109584</v>
       </c>
       <c r="Y57" s="2">
         <f ca="1"/>
-        <v>46356</v>
+        <v>46783</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46444</v>
+        <v>46871</v>
       </c>
       <c r="B58" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46538</v>
+        <v>46965</v>
       </c>
       <c r="C58" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B58,A58)</f>
-        <v>46538</v>
+        <v>46965</v>
       </c>
       <c r="D58" s="79">
         <v>0</v>
@@ -10259,11 +10267,11 @@
       </c>
       <c r="F58" s="77">
         <f t="array" aca="1" ref="F58" ca="1">IF(A58&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N58, Cap!$G$12, Cap!$G$13,M58 ),0)</f>
-        <v>6.0310131898804258</v>
+        <v>6.0293034036146596</v>
       </c>
       <c r="G58" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>231.46990373574243</v>
+        <v>231.33643021456697</v>
       </c>
       <c r="H58" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10271,15 +10279,15 @@
       </c>
       <c r="I58" s="128">
         <f ca="1">IF(C58="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C58))</f>
-        <v>0.61481446080365876</v>
+        <v>0.61503095548780617</v>
       </c>
       <c r="J58" s="128">
         <f ca="1">IF(C58="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A58))</f>
-        <v>0.6243637125162339</v>
+        <v>0.62458086162275395</v>
       </c>
       <c r="K58" s="128">
         <f ca="1">IF(C58="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B58))</f>
-        <v>0.61481446080365876</v>
+        <v>0.61503095548780617</v>
       </c>
       <c r="L58" s="128">
         <f ca="1">IF(A58="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A58, B58,Cap!$B$18))</f>
@@ -10287,49 +10295,49 @@
       </c>
       <c r="M58" s="128">
         <f ca="1">IF(A58="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A58,Cap!$B$18))</f>
-        <v>8.8438356164383567</v>
+        <v>8.8410958904109584</v>
       </c>
       <c r="N58" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0310131898804258</v>
+        <v>6.0293034036146596</v>
       </c>
       <c r="O58" s="128">
         <f ca="1">IF(L58="#N/A",L58,IF(Cap!$B$17="Standard",L58*G58*M58,L58*G58*M58/(1+L58*M58)))</f>
-        <v>160.84793288632449</v>
+        <v>160.73998499283337</v>
       </c>
       <c r="P58" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7079541224360879</v>
+        <v>3.708208233251006</v>
       </c>
       <c r="T58" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46444</v>
+        <v>46871</v>
       </c>
       <c r="U58" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46444</v>
+        <v>46871</v>
       </c>
       <c r="V58" s="77">
         <f ca="1">IF(C58="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C58,"ACT/365.FIXED"))</f>
-        <v>9.1013698630136979</v>
+        <v>9.0986301369863014</v>
       </c>
       <c r="Y58" s="2">
         <f ca="1"/>
-        <v>46444</v>
+        <v>46871</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46538</v>
+        <v>46965</v>
       </c>
       <c r="B59" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46630</v>
+        <v>47057</v>
       </c>
       <c r="C59" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B59,A59)</f>
-        <v>46630</v>
+        <v>47057</v>
       </c>
       <c r="D59" s="79">
         <v>0</v>
@@ -10339,11 +10347,11 @@
       </c>
       <c r="F59" s="77">
         <f t="array" aca="1" ref="F59" ca="1">IF(A59&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N59, Cap!$G$12, Cap!$G$13,M59 ),0)</f>
-        <v>6.0289334653317495</v>
+        <v>6.031943018946607</v>
       </c>
       <c r="G59" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>237.4988372010742</v>
+        <v>237.36837323351358</v>
       </c>
       <c r="H59" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10351,15 +10359,15 @@
       </c>
       <c r="I59" s="128">
         <f ca="1">IF(C59="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C59))</f>
-        <v>0.60561145835650265</v>
+        <v>0.60582018559169815</v>
       </c>
       <c r="J59" s="128">
         <f ca="1">IF(C59="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A59))</f>
-        <v>0.61481446080365876</v>
+        <v>0.61503095548780617</v>
       </c>
       <c r="K59" s="128">
         <f ca="1">IF(C59="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B59))</f>
-        <v>0.60561145835650265</v>
+        <v>0.60582018559169815</v>
       </c>
       <c r="L59" s="128">
         <f ca="1">IF(A59="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A59, B59,Cap!$B$18))</f>
@@ -10367,49 +10375,49 @@
       </c>
       <c r="M59" s="128">
         <f ca="1">IF(A59="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A59,Cap!$B$18))</f>
-        <v>9.1013698630136979</v>
+        <v>9.0986301369863014</v>
       </c>
       <c r="N59" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0289334653317495</v>
+        <v>6.031943018946607</v>
       </c>
       <c r="O59" s="128">
         <f ca="1">IF(L59="#N/A",L59,IF(Cap!$B$17="Standard",L59*G59*M59,L59*G59*M59/(1+L59*M59)))</f>
-        <v>165.39936201459065</v>
+        <v>165.29339431799806</v>
       </c>
       <c r="P59" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6511911882738839</v>
+        <v>3.6542728392167816</v>
       </c>
       <c r="T59" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46538</v>
+        <v>46965</v>
       </c>
       <c r="U59" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46538</v>
+        <v>46965</v>
       </c>
       <c r="V59" s="77">
         <f ca="1">IF(C59="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C59,"ACT/365.FIXED"))</f>
-        <v>9.3534246575342461</v>
+        <v>9.3506849315068497</v>
       </c>
       <c r="Y59" s="2">
         <f ca="1"/>
-        <v>46538</v>
+        <v>46965</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46630</v>
+        <v>47057</v>
       </c>
       <c r="B60" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46721</v>
+        <v>47149</v>
       </c>
       <c r="C60" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B60,A60)</f>
-        <v>46721</v>
+        <v>47149</v>
       </c>
       <c r="D60" s="79">
         <v>0</v>
@@ -10419,11 +10427,11 @@
       </c>
       <c r="F60" s="77">
         <f t="array" aca="1" ref="F60" ca="1">IF(A60&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N60, Cap!$G$12, Cap!$G$13,M60 ),0)</f>
-        <v>6.0631754219563287</v>
+        <v>6.0671719274746847</v>
       </c>
       <c r="G60" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>243.56201262303051</v>
+        <v>243.43554516098826</v>
       </c>
       <c r="H60" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10431,43 +10439,43 @@
       </c>
       <c r="I60" s="128">
         <f ca="1">IF(C60="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C60))</f>
-        <v>0.59659311229407375</v>
+        <v>0.59669516644089582</v>
       </c>
       <c r="J60" s="128">
         <f ca="1">IF(C60="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A60))</f>
-        <v>0.60561145835650265</v>
+        <v>0.60582018559169815</v>
       </c>
       <c r="K60" s="128">
         <f ca="1">IF(C60="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B60))</f>
-        <v>0.59659311229407375</v>
+        <v>0.59669516644089582</v>
       </c>
       <c r="L60" s="128">
         <f ca="1">IF(A60="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A60, B60,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M60" s="128">
         <f ca="1">IF(A60="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A60,Cap!$B$18))</f>
-        <v>9.3534246575342461</v>
+        <v>9.3506849315068497</v>
       </c>
       <c r="N60" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0631754219563287</v>
+        <v>6.0671719274746847</v>
       </c>
       <c r="O60" s="128">
         <f ca="1">IF(L60="#N/A",L60,IF(Cap!$B$17="Standard",L60*G60*M60,L60*G60*M60/(1+L60*M60)))</f>
-        <v>170.4630663949398</v>
+        <v>170.91725889072666</v>
       </c>
       <c r="P60" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6172486953698599</v>
+        <v>3.6202521630900377</v>
       </c>
       <c r="T60" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46630</v>
+        <v>47057</v>
       </c>
       <c r="U60" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46630</v>
+        <v>47057</v>
       </c>
       <c r="V60" s="77">
         <f ca="1">IF(C60="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C60,"ACT/365.FIXED"))</f>
@@ -10475,21 +10483,21 @@
       </c>
       <c r="Y60" s="2">
         <f ca="1"/>
-        <v>46630</v>
+        <v>47057</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46721</v>
+        <v>47149</v>
       </c>
       <c r="B61" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46812</v>
+        <v>47238</v>
       </c>
       <c r="C61" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B61,A61)</f>
-        <v>46812</v>
+        <v>47238</v>
       </c>
       <c r="D61" s="79">
         <v>0</v>
@@ -10499,11 +10507,11 @@
       </c>
       <c r="F61" s="77">
         <f t="array" aca="1" ref="F61" ca="1">IF(A61&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N61, Cap!$G$12, Cap!$G$13,M61 ),0)</f>
-        <v>6.0977236706854736</v>
+        <v>6.1003051694601096</v>
       </c>
       <c r="G61" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>249.65973629371598</v>
+        <v>249.53585033044837</v>
       </c>
       <c r="H61" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10511,19 +10519,19 @@
       </c>
       <c r="I61" s="128">
         <f ca="1">IF(C61="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C61))</f>
-        <v>0.58765919751847373</v>
+        <v>0.58794958295203237</v>
       </c>
       <c r="J61" s="128">
         <f ca="1">IF(C61="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A61))</f>
-        <v>0.59659311229407375</v>
+        <v>0.59669516644089582</v>
       </c>
       <c r="K61" s="128">
         <f ca="1">IF(C61="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B61))</f>
-        <v>0.58765919751847373</v>
+        <v>0.58794958295203237</v>
       </c>
       <c r="L61" s="128">
         <f ca="1">IF(A61="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A61, B61,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.24383561643835616</v>
       </c>
       <c r="M61" s="128">
         <f ca="1">IF(A61="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A61,Cap!$B$18))</f>
@@ -10531,45 +10539,45 @@
       </c>
       <c r="N61" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0977236706854736</v>
+        <v>6.1003051694601096</v>
       </c>
       <c r="O61" s="128">
         <f ca="1">IF(L61="#N/A",L61,IF(Cap!$B$17="Standard",L61*G61*M61,L61*G61*M61/(1+L61*M61)))</f>
-        <v>176.10292624521691</v>
+        <v>174.85783146063687</v>
       </c>
       <c r="P61" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5833833990044273</v>
+        <v>3.5866718802641984</v>
       </c>
       <c r="T61" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46721</v>
+        <v>47149</v>
       </c>
       <c r="U61" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46721</v>
+        <v>47149</v>
       </c>
       <c r="V61" s="77">
         <f ca="1">IF(C61="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C61,"ACT/365.FIXED"))</f>
-        <v>9.8520547945205479</v>
+        <v>9.8465753424657532</v>
       </c>
       <c r="Y61" s="2">
         <f ca="1"/>
-        <v>46721</v>
+        <v>47149</v>
       </c>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46812</v>
+        <v>47238</v>
       </c>
       <c r="B62" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46904</v>
+        <v>47330</v>
       </c>
       <c r="C62" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B62,A62)</f>
-        <v>46904</v>
+        <v>47330</v>
       </c>
       <c r="D62" s="79">
         <v>0</v>
@@ -10579,11 +10587,11 @@
       </c>
       <c r="F62" s="77">
         <f t="array" aca="1" ref="F62" ca="1">IF(A62&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N62, Cap!$G$12, Cap!$G$13,M62 ),0)</f>
-        <v>5.9501420922538291</v>
+        <v>5.9788892904755846</v>
       </c>
       <c r="G62" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>255.60987838596981</v>
+        <v>255.51473962092396</v>
       </c>
       <c r="H62" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10591,15 +10599,15 @@
       </c>
       <c r="I62" s="128">
         <f ca="1">IF(C62="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C62))</f>
-        <v>0.57897593733348829</v>
+        <v>0.5792206825982571</v>
       </c>
       <c r="J62" s="128">
         <f ca="1">IF(C62="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A62))</f>
-        <v>0.58765919751847373</v>
+        <v>0.58794958295203237</v>
       </c>
       <c r="K62" s="128">
         <f ca="1">IF(C62="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B62))</f>
-        <v>0.57897593733348829</v>
+        <v>0.5792206825982571</v>
       </c>
       <c r="L62" s="128">
         <f ca="1">IF(A62="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A62, B62,Cap!$B$18))</f>
@@ -10607,49 +10615,49 @@
       </c>
       <c r="M62" s="128">
         <f ca="1">IF(A62="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A62,Cap!$B$18))</f>
-        <v>9.8520547945205479</v>
+        <v>9.8465753424657532</v>
       </c>
       <c r="N62" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9501420922538291</v>
+        <v>5.9788892904755846</v>
       </c>
       <c r="O62" s="128">
         <f ca="1">IF(L62="#N/A",L62,IF(Cap!$B$17="Standard",L62*G62*M62,L62*G62*M62/(1+L62*M62)))</f>
-        <v>182.22745758858755</v>
+        <v>182.13053492266044</v>
       </c>
       <c r="P62" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4449890951301039</v>
+        <v>3.4630963360086771</v>
       </c>
       <c r="T62" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46812</v>
+        <v>47238</v>
       </c>
       <c r="U62" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46812</v>
+        <v>47238</v>
       </c>
       <c r="V62" s="77">
         <f ca="1">IF(C62="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C62,"ACT/365.FIXED"))</f>
-        <v>10.104109589041096</v>
+        <v>10.098630136986301</v>
       </c>
       <c r="Y62" s="2">
         <f ca="1"/>
-        <v>46812</v>
+        <v>47238</v>
       </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46904</v>
+        <v>47330</v>
       </c>
       <c r="B63" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>46996</v>
+        <v>47422</v>
       </c>
       <c r="C63" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B63,A63)</f>
-        <v>46996</v>
+        <v>47422</v>
       </c>
       <c r="D63" s="79">
         <v>0</v>
@@ -10659,11 +10667,11 @@
       </c>
       <c r="F63" s="77">
         <f t="array" aca="1" ref="F63" ca="1">IF(A63&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N63, Cap!$G$12, Cap!$G$13,M63 ),0)</f>
-        <v>5.6564672968803213</v>
+        <v>5.6555528887749578</v>
       </c>
       <c r="G63" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>261.2663456828501</v>
+        <v>261.17029250969892</v>
       </c>
       <c r="H63" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10671,15 +10679,15 @@
       </c>
       <c r="I63" s="128">
         <f ca="1">IF(C63="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C63))</f>
-        <v>0.57083728354684471</v>
+        <v>0.57107988616016714</v>
       </c>
       <c r="J63" s="128">
         <f ca="1">IF(C63="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A63))</f>
-        <v>0.57897593733348829</v>
+        <v>0.5792206825982571</v>
       </c>
       <c r="K63" s="128">
         <f ca="1">IF(C63="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B63))</f>
-        <v>0.57083728354684471</v>
+        <v>0.57107988616016714</v>
       </c>
       <c r="L63" s="128">
         <f ca="1">IF(A63="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A63, B63,Cap!$B$18))</f>
@@ -10687,49 +10695,49 @@
       </c>
       <c r="M63" s="128">
         <f ca="1">IF(A63="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A63,Cap!$B$18))</f>
-        <v>10.104109589041096</v>
+        <v>10.098630136986301</v>
       </c>
       <c r="N63" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6564672968803213</v>
+        <v>5.6555528887749578</v>
       </c>
       <c r="O63" s="128">
         <f ca="1">IF(L63="#N/A",L63,IF(Cap!$B$17="Standard",L63*G63*M63,L63*G63*M63/(1+L63*M63)))</f>
-        <v>187.60356899441149</v>
+        <v>187.50591258687976</v>
       </c>
       <c r="P63" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2289224262227263</v>
+        <v>3.2297724998944073</v>
       </c>
       <c r="T63" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46904</v>
+        <v>47330</v>
       </c>
       <c r="U63" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46904</v>
+        <v>47330</v>
       </c>
       <c r="V63" s="77">
         <f ca="1">IF(C63="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C63,"ACT/365.FIXED"))</f>
-        <v>10.356164383561644</v>
+        <v>10.35068493150685</v>
       </c>
       <c r="Y63" s="2">
         <f ca="1"/>
-        <v>46904</v>
+        <v>47330</v>
       </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>46996</v>
+        <v>47422</v>
       </c>
       <c r="B64" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47087</v>
+        <v>47514</v>
       </c>
       <c r="C64" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B64,A64)</f>
-        <v>47087</v>
+        <v>47514</v>
       </c>
       <c r="D64" s="79">
         <v>0</v>
@@ -10739,11 +10747,11 @@
       </c>
       <c r="F64" s="77">
         <f t="array" aca="1" ref="F64" ca="1">IF(A64&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N64, Cap!$G$12, Cap!$G$13,M64 ),0)</f>
-        <v>5.6662348796237199</v>
+        <v>5.6658366451631021</v>
       </c>
       <c r="G64" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>266.93258056247385</v>
+        <v>266.83612915486202</v>
       </c>
       <c r="H64" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10751,65 +10759,65 @@
       </c>
       <c r="I64" s="128">
         <f ca="1">IF(C64="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C64))</f>
-        <v>0.56288552504905265</v>
+        <v>0.56303911725564459</v>
       </c>
       <c r="J64" s="128">
         <f ca="1">IF(C64="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A64))</f>
-        <v>0.57083728354684471</v>
+        <v>0.57107988616016714</v>
       </c>
       <c r="K64" s="128">
         <f ca="1">IF(C64="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B64))</f>
-        <v>0.56288552504905265</v>
+        <v>0.56303911725564459</v>
       </c>
       <c r="L64" s="128">
         <f ca="1">IF(A64="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A64, B64,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M64" s="128">
         <f ca="1">IF(A64="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A64,Cap!$B$18))</f>
-        <v>10.356164383561644</v>
+        <v>10.35068493150685</v>
       </c>
       <c r="N64" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6662348796237199</v>
+        <v>5.6658366451631021</v>
       </c>
       <c r="O64" s="128">
         <f ca="1">IF(L64="#N/A",L64,IF(Cap!$B$17="Standard",L64*G64*M64,L64*G64*M64/(1+L64*M64)))</f>
-        <v>192.41095349352952</v>
+        <v>192.8985888696786</v>
       </c>
       <c r="P64" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1894415952682533</v>
+        <v>3.1900876632073158</v>
       </c>
       <c r="T64" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>46996</v>
+        <v>47422</v>
       </c>
       <c r="U64" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>46996</v>
+        <v>47422</v>
       </c>
       <c r="V64" s="77">
         <f ca="1">IF(C64="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C64,"ACT/365.FIXED"))</f>
-        <v>10.605479452054794</v>
+        <v>10.602739726027398</v>
       </c>
       <c r="Y64" s="2">
         <f ca="1"/>
-        <v>46996</v>
+        <v>47422</v>
       </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47087</v>
+        <v>47514</v>
       </c>
       <c r="B65" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47177</v>
+        <v>47603</v>
       </c>
       <c r="C65" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B65,A65)</f>
-        <v>47177</v>
+        <v>47603</v>
       </c>
       <c r="D65" s="79">
         <v>0</v>
@@ -10819,11 +10827,11 @@
       </c>
       <c r="F65" s="77">
         <f t="array" aca="1" ref="F65" ca="1">IF(A65&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N65, Cap!$G$12, Cap!$G$13,M65 ),0)</f>
-        <v>5.6758879243147229</v>
+        <v>5.6746353071436735</v>
       </c>
       <c r="G65" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>272.60846848678858</v>
+        <v>272.51076446200568</v>
       </c>
       <c r="H65" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10831,65 +10839,65 @@
       </c>
       <c r="I65" s="128">
         <f ca="1">IF(C65="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C65))</f>
-        <v>0.5551164811078545</v>
+        <v>0.55535479404785559</v>
       </c>
       <c r="J65" s="128">
         <f ca="1">IF(C65="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A65))</f>
-        <v>0.56288552504905265</v>
+        <v>0.56303911725564459</v>
       </c>
       <c r="K65" s="128">
         <f ca="1">IF(C65="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B65))</f>
-        <v>0.5551164811078545</v>
+        <v>0.55535479404785559</v>
       </c>
       <c r="L65" s="128">
         <f ca="1">IF(A65="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A65, B65,Cap!$B$18))</f>
-        <v>0.24657534246575341</v>
+        <v>0.24383561643835616</v>
       </c>
       <c r="M65" s="128">
         <f ca="1">IF(A65="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A65,Cap!$B$18))</f>
-        <v>10.605479452054794</v>
+        <v>10.602739726027398</v>
       </c>
       <c r="N65" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6758879243147229</v>
+        <v>5.6746353071436735</v>
       </c>
       <c r="O65" s="128">
         <f ca="1">IF(L65="#N/A",L65,IF(Cap!$B$17="Standard",L65*G65*M65,L65*G65*M65/(1+L65*M65)))</f>
-        <v>197.19914109010782</v>
+        <v>196.50350693209245</v>
       </c>
       <c r="P65" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1507789317081532</v>
+        <v>3.1514359222954647</v>
       </c>
       <c r="T65" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47087</v>
+        <v>47514</v>
       </c>
       <c r="U65" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47087</v>
+        <v>47514</v>
       </c>
       <c r="V65" s="77">
         <f ca="1">IF(C65="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C65,"ACT/365.FIXED"))</f>
-        <v>10.852054794520548</v>
+        <v>10.846575342465753</v>
       </c>
       <c r="Y65" s="2">
         <f ca="1"/>
-        <v>47087</v>
+        <v>47514</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47177</v>
+        <v>47603</v>
       </c>
       <c r="B66" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47269</v>
+        <v>47695</v>
       </c>
       <c r="C66" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B66,A66)</f>
-        <v>47269</v>
+        <v>47695</v>
       </c>
       <c r="D66" s="79">
         <v>0</v>
@@ -10899,11 +10907,11 @@
       </c>
       <c r="F66" s="77">
         <f t="array" aca="1" ref="F66" ca="1">IF(A66&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N66, Cap!$G$12, Cap!$G$13,M66 ),0)</f>
-        <v>5.6869162712268677</v>
+        <v>5.6860690144435679</v>
       </c>
       <c r="G66" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>278.29538475801547</v>
+        <v>278.19683347644923</v>
       </c>
       <c r="H66" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10911,15 +10919,15 @@
       </c>
       <c r="I66" s="128">
         <f ca="1">IF(C66="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C66))</f>
-        <v>0.54727180759658767</v>
+        <v>0.54750790550613393</v>
       </c>
       <c r="J66" s="128">
         <f ca="1">IF(C66="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A66))</f>
-        <v>0.5551164811078545</v>
+        <v>0.55535479404785559</v>
       </c>
       <c r="K66" s="128">
         <f ca="1">IF(C66="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B66))</f>
-        <v>0.54727180759658767</v>
+        <v>0.54750790550613393</v>
       </c>
       <c r="L66" s="128">
         <f ca="1">IF(A66="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A66, B66,Cap!$B$18))</f>
@@ -10927,49 +10935,49 @@
       </c>
       <c r="M66" s="128">
         <f ca="1">IF(A66="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A66,Cap!$B$18))</f>
-        <v>10.852054794520548</v>
+        <v>10.846575342465753</v>
       </c>
       <c r="N66" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6869162712268677</v>
+        <v>5.6860690144435679</v>
       </c>
       <c r="O66" s="128">
         <f ca="1">IF(L66="#N/A",L66,IF(Cap!$B$17="Standard",L66*G66*M66,L66*G66*M66/(1+L66*M66)))</f>
-        <v>203.79147400703314</v>
+        <v>203.69175834392425</v>
       </c>
       <c r="P66" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1122889474047741</v>
+        <v>3.1131677366613251</v>
       </c>
       <c r="T66" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47177</v>
+        <v>47603</v>
       </c>
       <c r="U66" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47177</v>
+        <v>47603</v>
       </c>
       <c r="V66" s="77">
         <f ca="1">IF(C66="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C66,"ACT/365.FIXED"))</f>
-        <v>11.104109589041096</v>
+        <v>11.098630136986301</v>
       </c>
       <c r="Y66" s="2">
         <f ca="1"/>
-        <v>47177</v>
+        <v>47603</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47269</v>
+        <v>47695</v>
       </c>
       <c r="B67" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47361</v>
+        <v>47787</v>
       </c>
       <c r="C67" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B67,A67)</f>
-        <v>47361</v>
+        <v>47787</v>
       </c>
       <c r="D67" s="79">
         <v>0</v>
@@ -10979,11 +10987,11 @@
       </c>
       <c r="F67" s="77">
         <f t="array" aca="1" ref="F67" ca="1">IF(A67&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N67, Cap!$G$12, Cap!$G$13,M67 ),0)</f>
-        <v>5.6971775969093796</v>
+        <v>5.6963529704624456</v>
       </c>
       <c r="G67" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>283.99256235492487</v>
+        <v>283.89318644691167</v>
       </c>
       <c r="H67" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -10991,15 +10999,15 @@
       </c>
       <c r="I67" s="128">
         <f ca="1">IF(C67="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C67))</f>
-        <v>0.53952423457836529</v>
+        <v>0.53975809612677317</v>
       </c>
       <c r="J67" s="128">
         <f ca="1">IF(C67="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A67))</f>
-        <v>0.54727180759658767</v>
+        <v>0.54750790550613393</v>
       </c>
       <c r="K67" s="128">
         <f ca="1">IF(C67="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B67))</f>
-        <v>0.53952423457836529</v>
+        <v>0.53975809612677317</v>
       </c>
       <c r="L67" s="128">
         <f ca="1">IF(A67="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A67, B67,Cap!$B$18))</f>
@@ -11007,49 +11015,49 @@
       </c>
       <c r="M67" s="128">
         <f ca="1">IF(A67="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A67,Cap!$B$18))</f>
-        <v>11.104109589041096</v>
+        <v>11.098630136986301</v>
       </c>
       <c r="N67" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6971775969093796</v>
+        <v>5.6963529704624456</v>
       </c>
       <c r="O67" s="128">
         <f ca="1">IF(L67="#N/A",L67,IF(Cap!$B$17="Standard",L67*G67*M67,L67*G67*M67/(1+L67*M67)))</f>
-        <v>209.23493666413418</v>
+        <v>209.13454073152789</v>
       </c>
       <c r="P67" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0737653822295434</v>
+        <v>3.0746526342028986</v>
       </c>
       <c r="T67" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47269</v>
+        <v>47695</v>
       </c>
       <c r="U67" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47269</v>
+        <v>47695</v>
       </c>
       <c r="V67" s="77">
         <f ca="1">IF(C67="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C67,"ACT/365.FIXED"))</f>
-        <v>11.356164383561644</v>
+        <v>11.35068493150685</v>
       </c>
       <c r="Y67" s="2">
         <f ca="1"/>
-        <v>47269</v>
+        <v>47695</v>
       </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47361</v>
+        <v>47787</v>
       </c>
       <c r="B68" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47452</v>
+        <v>47879</v>
       </c>
       <c r="C68" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B68,A68)</f>
-        <v>47452</v>
+        <v>47879</v>
       </c>
       <c r="D68" s="79">
         <v>0</v>
@@ -11059,11 +11067,11 @@
       </c>
       <c r="F68" s="77">
         <f t="array" aca="1" ref="F68" ca="1">IF(A68&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N68, Cap!$G$12, Cap!$G$13,M68 ),0)</f>
-        <v>5.7069391463841361</v>
+        <v>5.7066369937475336</v>
       </c>
       <c r="G68" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>289.69950150130899</v>
+        <v>289.59982344065918</v>
       </c>
       <c r="H68" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11071,65 +11079,65 @@
       </c>
       <c r="I68" s="128">
         <f ca="1">IF(C68="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C68))</f>
-        <v>0.53195543474775886</v>
+        <v>0.53210438532068605</v>
       </c>
       <c r="J68" s="128">
         <f ca="1">IF(C68="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A68))</f>
-        <v>0.53952423457836529</v>
+        <v>0.53975809612677317</v>
       </c>
       <c r="K68" s="128">
         <f ca="1">IF(C68="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B68))</f>
-        <v>0.53195543474775886</v>
+        <v>0.53210438532068605</v>
       </c>
       <c r="L68" s="128">
         <f ca="1">IF(A68="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A68, B68,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M68" s="128">
         <f ca="1">IF(A68="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A68,Cap!$B$18))</f>
-        <v>11.356164383561644</v>
+        <v>11.35068493150685</v>
       </c>
       <c r="N68" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7069391463841361</v>
+        <v>5.7066369937475336</v>
       </c>
       <c r="O68" s="128">
         <f ca="1">IF(L68="#N/A",L68,IF(Cap!$B$17="Standard",L68*G68*M68,L68*G68*M68/(1+L68*M68)))</f>
-        <v>214.08487807841823</v>
+        <v>214.59328844445633</v>
       </c>
       <c r="P68" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0358372946937768</v>
+        <v>3.0365265698063193</v>
       </c>
       <c r="T68" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47361</v>
+        <v>47787</v>
       </c>
       <c r="U68" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47361</v>
+        <v>47787</v>
       </c>
       <c r="V68" s="77">
         <f ca="1">IF(C68="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C68,"ACT/365.FIXED"))</f>
-        <v>11.605479452054794</v>
+        <v>11.602739726027398</v>
       </c>
       <c r="Y68" s="2">
         <f ca="1"/>
-        <v>47361</v>
+        <v>47787</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47452</v>
+        <v>47879</v>
       </c>
       <c r="B69" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47542</v>
+        <v>47968</v>
       </c>
       <c r="C69" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B69,A69)</f>
-        <v>47542</v>
+        <v>47968</v>
       </c>
       <c r="D69" s="79">
         <v>0</v>
@@ -11139,11 +11147,11 @@
       </c>
       <c r="F69" s="77">
         <f t="array" aca="1" ref="F69" ca="1">IF(A69&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N69, Cap!$G$12, Cap!$G$13,M69 ),0)</f>
-        <v>5.7165861336015489</v>
+        <v>5.7154169559370107</v>
       </c>
       <c r="G69" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>295.41608763491053</v>
+        <v>295.31524039659621</v>
       </c>
       <c r="H69" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11151,65 +11159,65 @@
       </c>
       <c r="I69" s="128">
         <f ca="1">IF(C69="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C69))</f>
-        <v>0.52456137919737977</v>
+        <v>0.52479078435891202</v>
       </c>
       <c r="J69" s="128">
         <f ca="1">IF(C69="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A69))</f>
-        <v>0.53195543474775886</v>
+        <v>0.53210438532068605</v>
       </c>
       <c r="K69" s="128">
         <f ca="1">IF(C69="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B69))</f>
-        <v>0.52456137919737977</v>
+        <v>0.52479078435891202</v>
       </c>
       <c r="L69" s="128">
         <f ca="1">IF(A69="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A69, B69,Cap!$B$18))</f>
-        <v>0.24657534246575341</v>
+        <v>0.24383561643835616</v>
       </c>
       <c r="M69" s="128">
         <f ca="1">IF(A69="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A69,Cap!$B$18))</f>
-        <v>11.605479452054794</v>
+        <v>11.602739726027398</v>
       </c>
       <c r="N69" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7165861336015489</v>
+        <v>5.7154169559370107</v>
       </c>
       <c r="O69" s="128">
         <f ca="1">IF(L69="#N/A",L69,IF(Cap!$B$17="Standard",L69*G69*M69,L69*G69*M69/(1+L69*M69)))</f>
-        <v>218.91562934297434</v>
+        <v>218.19254289819082</v>
       </c>
       <c r="P69" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9987003065426454</v>
+        <v>2.9993981472444093</v>
       </c>
       <c r="T69" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47452</v>
+        <v>47879</v>
       </c>
       <c r="U69" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47452</v>
+        <v>47879</v>
       </c>
       <c r="V69" s="77">
         <f ca="1">IF(C69="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C69,"ACT/365.FIXED"))</f>
-        <v>11.852054794520548</v>
+        <v>11.846575342465753</v>
       </c>
       <c r="Y69" s="2">
         <f ca="1"/>
-        <v>47452</v>
+        <v>47879</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47542</v>
+        <v>47968</v>
       </c>
       <c r="B70" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47634</v>
+        <v>48060</v>
       </c>
       <c r="C70" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B70,A70)</f>
-        <v>47634</v>
+        <v>48060</v>
       </c>
       <c r="D70" s="79">
         <v>0</v>
@@ -11219,11 +11227,11 @@
       </c>
       <c r="F70" s="77">
         <f t="array" aca="1" ref="F70" ca="1">IF(A70&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N70, Cap!$G$12, Cap!$G$13,M70 ),0)</f>
-        <v>5.7276273597425069</v>
+        <v>5.7268698881003361</v>
       </c>
       <c r="G70" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>301.14371499465301</v>
+        <v>301.04211028469655</v>
       </c>
       <c r="H70" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11231,15 +11239,15 @@
       </c>
       <c r="I70" s="128">
         <f ca="1">IF(C70="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C70))</f>
-        <v>0.51709618598783502</v>
+        <v>0.51732330005443294</v>
       </c>
       <c r="J70" s="128">
         <f ca="1">IF(C70="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A70))</f>
-        <v>0.52456137919737977</v>
+        <v>0.52479078435891202</v>
       </c>
       <c r="K70" s="128">
         <f ca="1">IF(C70="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B70))</f>
-        <v>0.51709618598783502</v>
+        <v>0.51732330005443294</v>
       </c>
       <c r="L70" s="128">
         <f ca="1">IF(A70="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A70, B70,Cap!$B$18))</f>
@@ -11247,49 +11255,49 @@
       </c>
       <c r="M70" s="128">
         <f ca="1">IF(A70="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A70,Cap!$B$18))</f>
-        <v>11.852054794520548</v>
+        <v>11.846575342465753</v>
       </c>
       <c r="N70" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7276273597425069</v>
+        <v>5.7268698881003361</v>
       </c>
       <c r="O70" s="128">
         <f ca="1">IF(L70="#N/A",L70,IF(Cap!$B$17="Standard",L70*G70*M70,L70*G70*M70/(1+L70*M70)))</f>
-        <v>225.61926560737317</v>
+        <v>225.51698257572423</v>
       </c>
       <c r="P70" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9617342624824237</v>
+        <v>2.9626432294944269</v>
       </c>
       <c r="T70" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47542</v>
+        <v>47968</v>
       </c>
       <c r="U70" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47542</v>
+        <v>47968</v>
       </c>
       <c r="V70" s="77">
         <f ca="1">IF(C70="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C70,"ACT/365.FIXED"))</f>
-        <v>12.104109589041096</v>
+        <v>12.098630136986301</v>
       </c>
       <c r="Y70" s="2">
         <f ca="1"/>
-        <v>47542</v>
+        <v>47968</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47634</v>
+        <v>48060</v>
       </c>
       <c r="B71" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47725</v>
+        <v>48152</v>
       </c>
       <c r="C71" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B71,A71)</f>
-        <v>47725</v>
+        <v>48152</v>
       </c>
       <c r="D71" s="79">
         <v>0</v>
@@ -11299,11 +11307,11 @@
       </c>
       <c r="F71" s="77">
         <f t="array" aca="1" ref="F71" ca="1">IF(A71&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N71, Cap!$G$12, Cap!$G$13,M71 ),0)</f>
-        <v>5.7373843672793692</v>
+        <v>5.7371541109967756</v>
       </c>
       <c r="G71" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>306.8810993619324</v>
+        <v>306.7792643956933</v>
       </c>
       <c r="H71" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11311,65 +11319,65 @@
       </c>
       <c r="I71" s="128">
         <f ca="1">IF(C71="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C71))</f>
-        <v>0.50980386797232946</v>
+        <v>0.50994904320605428</v>
       </c>
       <c r="J71" s="128">
         <f ca="1">IF(C71="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A71))</f>
-        <v>0.51709618598783502</v>
+        <v>0.51732330005443294</v>
       </c>
       <c r="K71" s="128">
         <f ca="1">IF(C71="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B71))</f>
-        <v>0.50980386797232946</v>
+        <v>0.50994904320605428</v>
       </c>
       <c r="L71" s="128">
         <f ca="1">IF(A71="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A71, B71,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M71" s="128">
         <f ca="1">IF(A71="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A71,Cap!$B$18))</f>
-        <v>12.104109589041096</v>
+        <v>12.098630136986301</v>
       </c>
       <c r="N71" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7373843672793692</v>
+        <v>5.7371541109967756</v>
       </c>
       <c r="O71" s="128">
         <f ca="1">IF(L71="#N/A",L71,IF(Cap!$B$17="Standard",L71*G71*M71,L71*G71*M71/(1+L71*M71)))</f>
-        <v>230.49951785434931</v>
+        <v>231.02227687006064</v>
       </c>
       <c r="P71" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9249407424829985</v>
+        <v>2.9256562496284868</v>
       </c>
       <c r="T71" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47634</v>
+        <v>48060</v>
       </c>
       <c r="U71" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47634</v>
+        <v>48060</v>
       </c>
       <c r="V71" s="77">
         <f ca="1">IF(C71="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C71,"ACT/365.FIXED"))</f>
-        <v>12.353424657534246</v>
+        <v>12.35068493150685</v>
       </c>
       <c r="Y71" s="2">
         <f ca="1"/>
-        <v>47634</v>
+        <v>48060</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47725</v>
+        <v>48152</v>
       </c>
       <c r="B72" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47816</v>
+        <v>48243</v>
       </c>
       <c r="C72" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B72,A72)</f>
-        <v>47816</v>
+        <v>48243</v>
       </c>
       <c r="D72" s="79">
         <v>0</v>
@@ -11379,11 +11387,11 @@
       </c>
       <c r="F72" s="77">
         <f t="array" aca="1" ref="F72" ca="1">IF(A72&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N72, Cap!$G$12, Cap!$G$13,M72 ),0)</f>
-        <v>5.7475328996977959</v>
+        <v>5.7469322024098295</v>
       </c>
       <c r="G72" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>312.62863226163017</v>
+        <v>312.52619659810313</v>
       </c>
       <c r="H72" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11391,15 +11399,15 @@
       </c>
       <c r="I72" s="128">
         <f ca="1">IF(C72="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C72))</f>
-        <v>0.50260185203042684</v>
+        <v>0.50274571865874718</v>
       </c>
       <c r="J72" s="128">
         <f ca="1">IF(C72="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A72))</f>
-        <v>0.50980386797232946</v>
+        <v>0.50994904320605428</v>
       </c>
       <c r="K72" s="128">
         <f ca="1">IF(C72="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B72))</f>
-        <v>0.50260185203042684</v>
+        <v>0.50274571865874718</v>
       </c>
       <c r="L72" s="128">
         <f ca="1">IF(A72="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A72, B72,Cap!$B$18))</f>
@@ -11407,49 +11415,49 @@
       </c>
       <c r="M72" s="128">
         <f ca="1">IF(A72="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A72,Cap!$B$18))</f>
-        <v>12.353424657534246</v>
+        <v>12.35068493150685</v>
       </c>
       <c r="N72" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7475328996977959</v>
+        <v>5.7469322024098295</v>
       </c>
       <c r="O72" s="128">
         <f ca="1">IF(L72="#N/A",L72,IF(Cap!$B$17="Standard",L72*G72*M72,L72*G72*M72/(1+L72*M72)))</f>
-        <v>236.00199387898647</v>
+        <v>235.91183888587724</v>
       </c>
       <c r="P72" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8887206799939218</v>
+        <v>2.8892455601836264</v>
       </c>
       <c r="T72" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47725</v>
+        <v>48152</v>
       </c>
       <c r="U72" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47725</v>
+        <v>48152</v>
       </c>
       <c r="V72" s="77">
         <f ca="1">IF(C72="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C72,"ACT/365.FIXED"))</f>
-        <v>12.602739726027398</v>
+        <v>12.6</v>
       </c>
       <c r="Y72" s="2">
         <f ca="1"/>
-        <v>47725</v>
+        <v>48152</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47816</v>
+        <v>48243</v>
       </c>
       <c r="B73" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47907</v>
+        <v>48334</v>
       </c>
       <c r="C73" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B73,A73)</f>
-        <v>47907</v>
+        <v>48334</v>
       </c>
       <c r="D73" s="79">
         <v>0</v>
@@ -11459,11 +11467,11 @@
       </c>
       <c r="F73" s="77">
         <f t="array" aca="1" ref="F73" ca="1">IF(A73&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N73, Cap!$G$12, Cap!$G$13,M73 ),0)</f>
-        <v>5.7576814948467554</v>
+        <v>5.7571031810395183</v>
       </c>
       <c r="G73" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>318.38631375647691</v>
+        <v>318.28329977914262</v>
       </c>
       <c r="H73" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11471,15 +11479,15 @@
       </c>
       <c r="I73" s="128">
         <f ca="1">IF(C73="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C73))</f>
-        <v>0.4954892194554224</v>
+        <v>0.4956317546378235</v>
       </c>
       <c r="J73" s="128">
         <f ca="1">IF(C73="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A73))</f>
-        <v>0.50260185203042684</v>
+        <v>0.50274571865874718</v>
       </c>
       <c r="K73" s="128">
         <f ca="1">IF(C73="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B73))</f>
-        <v>0.4954892194554224</v>
+        <v>0.4956317546378235</v>
       </c>
       <c r="L73" s="128">
         <f ca="1">IF(A73="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A73, B73,Cap!$B$18))</f>
@@ -11487,49 +11495,49 @@
       </c>
       <c r="M73" s="128">
         <f ca="1">IF(A73="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A73,Cap!$B$18))</f>
-        <v>12.602739726027398</v>
+        <v>12.6</v>
       </c>
       <c r="N73" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7576814948467554</v>
+        <v>5.7571031810395183</v>
       </c>
       <c r="O73" s="128">
         <f ca="1">IF(L73="#N/A",L73,IF(Cap!$B$17="Standard",L73*G73*M73,L73*G73*M73/(1+L73*M73)))</f>
-        <v>241.51952328810987</v>
+        <v>241.42870569381111</v>
       </c>
       <c r="P73" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8528691097545487</v>
+        <v>2.8534031512496116</v>
       </c>
       <c r="T73" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47816</v>
+        <v>48243</v>
       </c>
       <c r="U73" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47816</v>
+        <v>48243</v>
       </c>
       <c r="V73" s="77">
         <f ca="1">IF(C73="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C73,"ACT/365.FIXED"))</f>
-        <v>12.852054794520548</v>
+        <v>12.849315068493151</v>
       </c>
       <c r="Y73" s="2">
         <f ca="1"/>
-        <v>47816</v>
+        <v>48243</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47907</v>
+        <v>48334</v>
       </c>
       <c r="B74" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>47998</v>
+        <v>48425</v>
       </c>
       <c r="C74" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B74,A74)</f>
-        <v>47998</v>
+        <v>48425</v>
       </c>
       <c r="D74" s="79">
         <v>0</v>
@@ -11539,11 +11547,11 @@
       </c>
       <c r="F74" s="77">
         <f t="array" aca="1" ref="F74" ca="1">IF(A74&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N74, Cap!$G$12, Cap!$G$13,M74 ),0)</f>
-        <v>5.7678301527250921</v>
+        <v>5.7672742226663916</v>
       </c>
       <c r="G74" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>324.15414390920199</v>
+        <v>324.05057400180903</v>
       </c>
       <c r="H74" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11551,15 +11559,15 @@
       </c>
       <c r="I74" s="128">
         <f ca="1">IF(C74="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C74))</f>
-        <v>0.48846505787914019</v>
+        <v>0.48860624006857123</v>
       </c>
       <c r="J74" s="128">
         <f ca="1">IF(C74="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A74))</f>
-        <v>0.4954892194554224</v>
+        <v>0.4956317546378235</v>
       </c>
       <c r="K74" s="128">
         <f ca="1">IF(C74="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B74))</f>
-        <v>0.48846505787914019</v>
+        <v>0.48860624006857123</v>
       </c>
       <c r="L74" s="128">
         <f ca="1">IF(A74="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A74, B74,Cap!$B$18))</f>
@@ -11567,49 +11575,49 @@
       </c>
       <c r="M74" s="128">
         <f ca="1">IF(A74="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A74,Cap!$B$18))</f>
-        <v>12.852054794520548</v>
+        <v>12.849315068493151</v>
       </c>
       <c r="N74" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7678301527250921</v>
+        <v>5.7672742226663916</v>
       </c>
       <c r="O74" s="128">
         <f ca="1">IF(L74="#N/A",L74,IF(Cap!$B$17="Standard",L74*G74*M74,L74*G74*M74/(1+L74*M74)))</f>
-        <v>247.05188858198994</v>
+        <v>246.96042869964563</v>
       </c>
       <c r="P74" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8173834893879119</v>
+        <v>2.8179261733814176</v>
       </c>
       <c r="T74" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47907</v>
+        <v>48334</v>
       </c>
       <c r="U74" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47907</v>
+        <v>48334</v>
       </c>
       <c r="V74" s="77">
         <f ca="1">IF(C74="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C74,"ACT/365.FIXED"))</f>
-        <v>13.101369863013698</v>
+        <v>13.098630136986301</v>
       </c>
       <c r="Y74" s="2">
         <f ca="1"/>
-        <v>47907</v>
+        <v>48334</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>47998</v>
+        <v>48425</v>
       </c>
       <c r="B75" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>48089</v>
+        <v>48516</v>
       </c>
       <c r="C75" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B75,A75)</f>
-        <v>48089</v>
+        <v>48516</v>
       </c>
       <c r="D75" s="79">
         <v>0</v>
@@ -11619,11 +11627,11 @@
       </c>
       <c r="F75" s="77">
         <f t="array" aca="1" ref="F75" ca="1">IF(A75&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N75, Cap!$G$12, Cap!$G$13,M75 ),0)</f>
-        <v>5.7779788733173083</v>
+        <v>5.7774453272933002</v>
       </c>
       <c r="G75" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>329.93212278251929</v>
+        <v>329.82801932910235</v>
       </c>
       <c r="H75" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11631,15 +11639,15 @@
       </c>
       <c r="I75" s="128">
         <f ca="1">IF(C75="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C75))</f>
-        <v>0.48152846127288401</v>
+        <v>0.48166827018321057</v>
       </c>
       <c r="J75" s="128">
         <f ca="1">IF(C75="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A75))</f>
-        <v>0.48846505787914019</v>
+        <v>0.48860624006857123</v>
       </c>
       <c r="K75" s="128">
         <f ca="1">IF(C75="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B75))</f>
-        <v>0.48152846127288401</v>
+        <v>0.48166827018321057</v>
       </c>
       <c r="L75" s="128">
         <f ca="1">IF(A75="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A75, B75,Cap!$B$18))</f>
@@ -11647,49 +11655,49 @@
       </c>
       <c r="M75" s="128">
         <f ca="1">IF(A75="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A75,Cap!$B$18))</f>
-        <v>13.101369863013698</v>
+        <v>13.098630136986301</v>
       </c>
       <c r="N75" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7779788733173083</v>
+        <v>5.7774453272933002</v>
       </c>
       <c r="O75" s="128">
         <f ca="1">IF(L75="#N/A",L75,IF(Cap!$B$17="Standard",L75*G75*M75,L75*G75*M75/(1+L75*M75)))</f>
-        <v>252.59888493981509</v>
+        <v>252.506803140497</v>
       </c>
       <c r="P75" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7822612761357153</v>
+        <v>2.7828120968754368</v>
       </c>
       <c r="T75" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>47998</v>
+        <v>48425</v>
       </c>
       <c r="U75" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>47998</v>
+        <v>48425</v>
       </c>
       <c r="V75" s="77">
         <f ca="1">IF(C75="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C75,"ACT/365.FIXED"))</f>
-        <v>13.35068493150685</v>
+        <v>13.347945205479451</v>
       </c>
       <c r="Y75" s="2">
         <f ca="1"/>
-        <v>47998</v>
+        <v>48425</v>
       </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>48089</v>
+        <v>48516</v>
       </c>
       <c r="B76" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>48180</v>
+        <v>48610</v>
       </c>
       <c r="C76" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B76,A76)</f>
-        <v>48180</v>
+        <v>48610</v>
       </c>
       <c r="D76" s="79">
         <v>0</v>
@@ -11699,11 +11707,11 @@
       </c>
       <c r="F76" s="77">
         <f t="array" aca="1" ref="F76" ca="1">IF(A76&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N76, Cap!$G$12, Cap!$G$13,M76 ),0)</f>
-        <v>5.7881276566404143</v>
+        <v>5.7891544417086918</v>
       </c>
       <c r="G76" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>335.72025043915971</v>
+        <v>335.61717377081106</v>
       </c>
       <c r="H76" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11711,65 +11719,65 @@
       </c>
       <c r="I76" s="128">
         <f ca="1">IF(C76="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C76))</f>
-        <v>0.47467852994752929</v>
+        <v>0.47459254371606446</v>
       </c>
       <c r="J76" s="128">
         <f ca="1">IF(C76="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A76))</f>
-        <v>0.48152846127288401</v>
+        <v>0.48166827018321057</v>
       </c>
       <c r="K76" s="128">
         <f ca="1">IF(C76="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B76))</f>
-        <v>0.47467852994752929</v>
+        <v>0.47459254371606446</v>
       </c>
       <c r="L76" s="128">
         <f ca="1">IF(A76="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A76, B76,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M76" s="128">
         <f ca="1">IF(A76="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A76,Cap!$B$18))</f>
-        <v>13.35068493150685</v>
+        <v>13.347945205479451</v>
       </c>
       <c r="N76" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7881276566404143</v>
+        <v>5.7891544417086918</v>
       </c>
       <c r="O76" s="128">
         <f ca="1">IF(L76="#N/A",L76,IF(Cap!$B$17="Standard",L76*G76*M76,L76*G76*M76/(1+L76*M76)))</f>
-        <v>258.16031930936396</v>
+        <v>259.98603812540199</v>
       </c>
       <c r="P76" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7474999272027096</v>
+        <v>2.7474895324556812</v>
       </c>
       <c r="T76" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>48089</v>
+        <v>48516</v>
       </c>
       <c r="U76" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>48089</v>
+        <v>48516</v>
       </c>
       <c r="V76" s="77">
         <f ca="1">IF(C76="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C76,"ACT/365.FIXED"))</f>
-        <v>13.6</v>
+        <v>13.605479452054794</v>
       </c>
       <c r="Y76" s="2">
         <f ca="1"/>
-        <v>48089</v>
+        <v>48516</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>48180</v>
+        <v>48610</v>
       </c>
       <c r="B77" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>48271</v>
+        <v>48698</v>
       </c>
       <c r="C77" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B77,A77)</f>
-        <v>48271</v>
+        <v>48698</v>
       </c>
       <c r="D77" s="79">
         <v>0</v>
@@ -11779,11 +11787,11 @@
       </c>
       <c r="F77" s="77">
         <f t="array" aca="1" ref="F77" ca="1">IF(A77&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N77, Cap!$G$12, Cap!$G$13,M77 ),0)</f>
-        <v>5.7982765026739251</v>
+        <v>5.7965807189378253</v>
       </c>
       <c r="G77" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>341.51852694183361</v>
+        <v>341.4137544897489</v>
       </c>
       <c r="H77" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11791,65 +11799,65 @@
       </c>
       <c r="I77" s="128">
         <f ca="1">IF(C77="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C77))</f>
-        <v>0.46791437055290808</v>
+        <v>0.46805137693099147</v>
       </c>
       <c r="J77" s="128">
         <f ca="1">IF(C77="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A77))</f>
-        <v>0.47467852994752929</v>
+        <v>0.47459254371606446</v>
       </c>
       <c r="K77" s="128">
         <f ca="1">IF(C77="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B77))</f>
-        <v>0.46791437055290808</v>
+        <v>0.46805137693099147</v>
       </c>
       <c r="L77" s="128">
         <f ca="1">IF(A77="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A77, B77,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.24109589041095891</v>
       </c>
       <c r="M77" s="128">
         <f ca="1">IF(A77="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A77,Cap!$B$18))</f>
-        <v>13.6</v>
+        <v>13.605479452054794</v>
       </c>
       <c r="N77" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7982765026739251</v>
+        <v>5.7965807189378253</v>
       </c>
       <c r="O77" s="128">
         <f ca="1">IF(L77="#N/A",L77,IF(Cap!$B$17="Standard",L77*G77*M77,L77*G77*M77/(1+L77*M77)))</f>
-        <v>263.7360095739507</v>
+        <v>261.64838236660484</v>
       </c>
       <c r="P77" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7130969000403868</v>
+        <v>2.7130975869904854</v>
       </c>
       <c r="T77" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>48180</v>
+        <v>48610</v>
       </c>
       <c r="U77" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>48180</v>
+        <v>48610</v>
       </c>
       <c r="V77" s="77">
         <f ca="1">IF(C77="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C77,"ACT/365.FIXED"))</f>
-        <v>13.849315068493151</v>
+        <v>13.846575342465753</v>
       </c>
       <c r="Y77" s="2">
         <f ca="1"/>
-        <v>48180</v>
+        <v>48610</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>48271</v>
+        <v>48698</v>
       </c>
       <c r="B78" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>48365</v>
+        <v>48789</v>
       </c>
       <c r="C78" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B78,A78)</f>
-        <v>48365</v>
+        <v>48789</v>
       </c>
       <c r="D78" s="79">
         <v>0</v>
@@ -11859,11 +11867,11 @@
       </c>
       <c r="F78" s="77">
         <f t="array" aca="1" ref="F78" ca="1">IF(A78&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N78, Cap!$G$12, Cap!$G$13,M78 ),0)</f>
-        <v>5.8099728392524845</v>
+        <v>5.8079590191588286</v>
       </c>
       <c r="G78" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>347.32849978108612</v>
+        <v>347.22171350890773</v>
       </c>
       <c r="H78" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11871,65 +11879,65 @@
       </c>
       <c r="I78" s="128">
         <f ca="1">IF(C78="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C78))</f>
-        <v>0.46101633536467457</v>
+        <v>0.46137067556535871</v>
       </c>
       <c r="J78" s="128">
         <f ca="1">IF(C78="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A78))</f>
-        <v>0.46791437055290808</v>
+        <v>0.46805137693099147</v>
       </c>
       <c r="K78" s="128">
         <f ca="1">IF(C78="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B78))</f>
-        <v>0.46101633536467457</v>
+        <v>0.46137067556535871</v>
       </c>
       <c r="L78" s="128">
         <f ca="1">IF(A78="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A78, B78,Cap!$B$18))</f>
-        <v>0.25753424657534246</v>
+        <v>0.24931506849315069</v>
       </c>
       <c r="M78" s="128">
         <f ca="1">IF(A78="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A78,Cap!$B$18))</f>
-        <v>13.849315068493151</v>
+        <v>13.846575342465753</v>
       </c>
       <c r="N78" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8099728392524845</v>
+        <v>5.8079590191588286</v>
       </c>
       <c r="O78" s="128">
         <f ca="1">IF(L78="#N/A",L78,IF(Cap!$B$17="Standard",L78*G78*M78,L78*G78*M78/(1+L78*M78)))</f>
-        <v>271.27126824017074</v>
+        <v>269.23221563029199</v>
       </c>
       <c r="P78" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6784923869204738</v>
+        <v>2.6796219763252269</v>
       </c>
       <c r="T78" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>48271</v>
+        <v>48698</v>
       </c>
       <c r="U78" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>48271</v>
+        <v>48698</v>
       </c>
       <c r="V78" s="77">
         <f ca="1">IF(C78="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C78,"ACT/365.FIXED"))</f>
-        <v>14.106849315068493</v>
+        <v>14.095890410958905</v>
       </c>
       <c r="Y78" s="2">
         <f ca="1"/>
-        <v>48271</v>
+        <v>48698</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>48365</v>
+        <v>48789</v>
       </c>
       <c r="B79" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>48457</v>
+        <v>48883</v>
       </c>
       <c r="C79" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B79,A79)</f>
-        <v>48457</v>
+        <v>48883</v>
       </c>
       <c r="D79" s="79">
         <v>0</v>
@@ -11939,11 +11947,11 @@
       </c>
       <c r="F79" s="77">
         <f t="array" aca="1" ref="F79" ca="1">IF(A79&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N79, Cap!$G$12, Cap!$G$13,M79 ),0)</f>
-        <v>5.8194263669075115</v>
+        <v>5.8196827787953094</v>
       </c>
       <c r="G79" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>353.14792614799364</v>
+        <v>353.04139628770304</v>
       </c>
       <c r="H79" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -11951,65 +11959,65 @@
       </c>
       <c r="I79" s="128">
         <f ca="1">IF(C79="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C79))</f>
-        <v>0.45435183756114655</v>
+        <v>0.45455790881505076</v>
       </c>
       <c r="J79" s="128">
         <f ca="1">IF(C79="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A79))</f>
-        <v>0.46101633536467457</v>
+        <v>0.46137067556535871</v>
       </c>
       <c r="K79" s="128">
         <f ca="1">IF(C79="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B79))</f>
-        <v>0.45435183756114655</v>
+        <v>0.45455790881505076</v>
       </c>
       <c r="L79" s="128">
         <f ca="1">IF(A79="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A79, B79,Cap!$B$18))</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M79" s="128">
         <f ca="1">IF(A79="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A79,Cap!$B$18))</f>
-        <v>14.106849315068493</v>
+        <v>14.095890410958905</v>
       </c>
       <c r="N79" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8194263669075115</v>
+        <v>5.8196827787953094</v>
       </c>
       <c r="O79" s="128">
         <f ca="1">IF(L79="#N/A",L79,IF(Cap!$B$17="Standard",L79*G79*M79,L79*G79*M79/(1+L79*M79)))</f>
-        <v>275.63009063556234</v>
+        <v>276.79342874196016</v>
       </c>
       <c r="P79" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6440670633562151</v>
+        <v>2.6453828338961594</v>
       </c>
       <c r="T79" s="75">
         <f t="shared" ca="1" si="8"/>
-        <v>48365</v>
+        <v>48789</v>
       </c>
       <c r="U79" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>48365</v>
+        <v>48789</v>
       </c>
       <c r="V79" s="77">
         <f ca="1">IF(C79="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C79,"ACT/365.FIXED"))</f>
-        <v>14.358904109589041</v>
+        <v>14.353424657534246</v>
       </c>
       <c r="Y79" s="2">
         <f ca="1"/>
-        <v>48365</v>
+        <v>48789</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>48457</v>
+        <v>48883</v>
       </c>
       <c r="B80" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>48548</v>
+        <v>48975</v>
       </c>
       <c r="C80" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B80,A80)</f>
-        <v>48548</v>
+        <v>48975</v>
       </c>
       <c r="D80" s="79">
         <v>0</v>
@@ -12019,11 +12027,11 @@
       </c>
       <c r="F80" s="77">
         <f t="array" aca="1" ref="F80" ca="1">IF(A80&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N80, Cap!$G$12, Cap!$G$13,M80 ),0)</f>
-        <v>5.8291695299293727</v>
+        <v>5.8291561839415218</v>
       </c>
       <c r="G80" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>358.97709567792299</v>
+        <v>358.87055247164454</v>
       </c>
       <c r="H80" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12031,65 +12039,65 @@
       </c>
       <c r="I80" s="128">
         <f ca="1">IF(C80="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C80))</f>
-        <v>0.44784333132001625</v>
+        <v>0.44797594711264194</v>
       </c>
       <c r="J80" s="128">
         <f ca="1">IF(C80="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A80))</f>
-        <v>0.45435183756114655</v>
+        <v>0.45455790881505076</v>
       </c>
       <c r="K80" s="128">
         <f ca="1">IF(C80="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B80))</f>
-        <v>0.44784333132001625</v>
+        <v>0.44797594711264194</v>
       </c>
       <c r="L80" s="128">
         <f ca="1">IF(A80="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A80, B80,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M80" s="128">
         <f ca="1">IF(A80="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A80,Cap!$B$18))</f>
-        <v>14.358904109589041</v>
+        <v>14.353424657534246</v>
       </c>
       <c r="N80" s="128">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8291695299293727</v>
+        <v>5.8291561839415218</v>
       </c>
       <c r="O80" s="128">
         <f ca="1">IF(L80="#N/A",L80,IF(Cap!$B$17="Standard",L80*G80*M80,L80*G80*M80/(1+L80*M80)))</f>
-        <v>280.59595450797417</v>
+        <v>281.15676984183199</v>
       </c>
       <c r="P80" s="128">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6105547011127035</v>
+        <v>2.6113217623687168</v>
       </c>
       <c r="T80" s="75">
         <f t="shared" ref="T80:T108" ca="1" si="9">IF(ISERROR(U80), "#N/A",IF(U80="","#N/A",U80+D80))</f>
-        <v>48457</v>
+        <v>48883</v>
       </c>
       <c r="U80" s="73">
         <f t="shared" ca="1" si="4"/>
-        <v>48457</v>
+        <v>48883</v>
       </c>
       <c r="V80" s="77">
         <f ca="1">IF(C80="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C80,"ACT/365.FIXED"))</f>
-        <v>14.608219178082193</v>
+        <v>14.605479452054794</v>
       </c>
       <c r="Y80" s="2">
         <f ca="1"/>
-        <v>48457</v>
+        <v>48883</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>48548</v>
+        <v>48975</v>
       </c>
       <c r="B81" s="85">
         <f t="shared" ref="B81:B107" ca="1" si="10">IF(A81="#N/A", "#N/A",IF(A82="#N/A",$C$13,A82))</f>
-        <v>48638</v>
+        <v>49062</v>
       </c>
       <c r="C81" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B81,A81)</f>
-        <v>48638</v>
+        <v>49062</v>
       </c>
       <c r="D81" s="79">
         <v>0</v>
@@ -12099,11 +12107,11 @@
       </c>
       <c r="F81" s="77">
         <f t="array" aca="1" ref="F81" ca="1">IF(A81&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N81, Cap!$G$12, Cap!$G$13,M81 ),0)</f>
-        <v>5.8387980581353656</v>
+        <v>5.8368382548487538</v>
       </c>
       <c r="G81" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>364.81589373605834</v>
+        <v>364.70739072649332</v>
       </c>
       <c r="H81" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12111,65 +12119,65 @@
       </c>
       <c r="I81" s="128">
         <f ca="1">IF(C81="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C81))</f>
-        <v>0.44148722373056787</v>
+        <v>0.44182901691541004</v>
       </c>
       <c r="J81" s="128">
         <f ca="1">IF(C81="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A81))</f>
-        <v>0.44784333132001625</v>
+        <v>0.44797594711264194</v>
       </c>
       <c r="K81" s="128">
         <f ca="1">IF(C81="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B81))</f>
-        <v>0.44148722373056787</v>
+        <v>0.44182901691541004</v>
       </c>
       <c r="L81" s="128">
         <f ca="1">IF(A81="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A81, B81,Cap!$B$18))</f>
-        <v>0.24657534246575341</v>
+        <v>0.23835616438356164</v>
       </c>
       <c r="M81" s="128">
         <f ca="1">IF(A81="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A81,Cap!$B$18))</f>
-        <v>14.608219178082193</v>
+        <v>14.605479452054794</v>
       </c>
       <c r="N81" s="128">
         <f t="shared" ref="N81:N108" ca="1" si="11">IF(A81="#N/A","#N/A",(J81/K81-1)/L81*100)</f>
-        <v>5.8387980581353656</v>
+        <v>5.8368382548487538</v>
       </c>
       <c r="O81" s="128">
         <f ca="1">IF(L81="#N/A",L81,IF(Cap!$B$17="Standard",L81*G81*M81,L81*G81*M81/(1+L81*M81)))</f>
-        <v>285.54301642632129</v>
+        <v>283.32321706197666</v>
       </c>
       <c r="P81" s="128">
         <f t="shared" ref="P81:P108" ca="1" si="12">IF(N81="#N/A",N81,N81*I81)</f>
-        <v>2.5777547446096132</v>
+        <v>2.5788845080340823</v>
       </c>
       <c r="T81" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>48548</v>
+        <v>48975</v>
       </c>
       <c r="U81" s="73">
         <f t="shared" ref="U81:U108" ca="1" si="13">Y81</f>
-        <v>48548</v>
+        <v>48975</v>
       </c>
       <c r="V81" s="77">
         <f ca="1">IF(C81="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C81,"ACT/365.FIXED"))</f>
-        <v>14.854794520547944</v>
+        <v>14.843835616438357</v>
       </c>
       <c r="Y81" s="2">
         <f ca="1"/>
-        <v>48548</v>
+        <v>48975</v>
       </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="85">
         <f t="shared" ref="A82:A108" ca="1" si="14">IF(T83="#N/A", "#N/A",T82)</f>
-        <v>48638</v>
+        <v>49062</v>
       </c>
       <c r="B82" s="85">
         <f t="shared" ca="1" si="10"/>
-        <v>48730</v>
+        <v>49156</v>
       </c>
       <c r="C82" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B82,A82)</f>
-        <v>48730</v>
+        <v>49156</v>
       </c>
       <c r="D82" s="79">
         <v>0</v>
@@ -12179,11 +12187,11 @@
       </c>
       <c r="F82" s="77">
         <f t="array" aca="1" ref="F82" ca="1">IF(A82&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N82, Cap!$G$12, Cap!$G$13,M82 ),0)</f>
-        <v>5.4716452843706849</v>
+        <v>5.5451502428596937</v>
       </c>
       <c r="G82" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>370.28753902042905</v>
+        <v>370.25254096935299</v>
       </c>
       <c r="H82" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12191,65 +12199,65 @@
       </c>
       <c r="I82" s="128">
         <f ca="1">IF(C82="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C82))</f>
-        <v>0.43548126458758851</v>
+        <v>0.43560824330774039</v>
       </c>
       <c r="J82" s="128">
         <f ca="1">IF(C82="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A82))</f>
-        <v>0.44148722373056787</v>
+        <v>0.44182901691541004</v>
       </c>
       <c r="K82" s="128">
         <f ca="1">IF(C82="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B82))</f>
-        <v>0.43548126458758851</v>
+        <v>0.43560824330774039</v>
       </c>
       <c r="L82" s="128">
         <f ca="1">IF(A82="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A82, B82,Cap!$B$18))</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M82" s="128">
         <f ca="1">IF(A82="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A82,Cap!$B$18))</f>
-        <v>14.854794520547944</v>
+        <v>14.843835616438357</v>
       </c>
       <c r="N82" s="128">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4716452843706849</v>
+        <v>5.5451502428596937</v>
       </c>
       <c r="O82" s="128">
         <f ca="1">IF(L82="#N/A",L82,IF(Cap!$B$17="Standard",L82*G82*M82,L82*G82*M82/(1+L82*M82)))</f>
-        <v>292.23732869496911</v>
+        <v>293.48119519851417</v>
       </c>
       <c r="P82" s="128">
         <f t="shared" ca="1" si="12"/>
-        <v>2.3827990078124612</v>
+        <v>2.4155131561696011</v>
       </c>
       <c r="T82" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>48638</v>
+        <v>49062</v>
       </c>
       <c r="U82" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>48638</v>
+        <v>49062</v>
       </c>
       <c r="V82" s="77">
         <f ca="1">IF(C82="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C82,"ACT/365.FIXED"))</f>
-        <v>15.106849315068493</v>
+        <v>15.101369863013698</v>
       </c>
       <c r="Y82" s="2">
         <f ca="1"/>
-        <v>48638</v>
+        <v>49062</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="85">
         <f t="shared" ca="1" si="14"/>
-        <v>48730</v>
+        <v>49156</v>
       </c>
       <c r="B83" s="85">
         <f t="shared" ca="1" si="10"/>
-        <v>48822</v>
+        <v>49248</v>
       </c>
       <c r="C83" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B83,A83)</f>
-        <v>48822</v>
+        <v>49248</v>
       </c>
       <c r="D83" s="79">
         <v>0</v>
@@ -12259,11 +12267,11 @@
       </c>
       <c r="F83" s="77">
         <f t="array" aca="1" ref="F83" ca="1">IF(A83&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N83, Cap!$G$12, Cap!$G$13,M83 ),0)</f>
-        <v>4.8141298935651431</v>
+        <v>4.8144929556818665</v>
       </c>
       <c r="G83" s="77">
         <f t="shared" ref="G83:G108" ca="1" si="15">F83+G82</f>
-        <v>375.10166891399422</v>
+        <v>375.06703392503488</v>
       </c>
       <c r="H83" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12271,15 +12279,15 @@
       </c>
       <c r="I83" s="128">
         <f ca="1">IF(C83="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C83))</f>
-        <v>0.43026037963642566</v>
+        <v>0.43038544690726377</v>
       </c>
       <c r="J83" s="128">
         <f ca="1">IF(C83="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A83))</f>
-        <v>0.43548126458758851</v>
+        <v>0.43560824330774039</v>
       </c>
       <c r="K83" s="128">
         <f ca="1">IF(C83="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B83))</f>
-        <v>0.43026037963642566</v>
+        <v>0.43038544690726377</v>
       </c>
       <c r="L83" s="128">
         <f ca="1">IF(A83="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A83, B83,Cap!$B$18))</f>
@@ -12287,49 +12295,49 @@
       </c>
       <c r="M83" s="128">
         <f ca="1">IF(A83="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A83,Cap!$B$18))</f>
-        <v>15.106849315068493</v>
+        <v>15.101369863013698</v>
       </c>
       <c r="N83" s="128">
         <f t="shared" ca="1" si="11"/>
-        <v>4.8141298935651431</v>
+        <v>4.8144929556818665</v>
       </c>
       <c r="O83" s="128">
         <f ca="1">IF(L83="#N/A",L83,IF(Cap!$B$17="Standard",L83*G83*M83,L83*G83*M83/(1+L83*M83)))</f>
-        <v>297.08151968819101</v>
+        <v>297.03167148687766</v>
       </c>
       <c r="P83" s="128">
         <f t="shared" ca="1" si="12"/>
-        <v>2.0713293556244041</v>
+        <v>2.0720877023630133</v>
       </c>
       <c r="T83" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>48730</v>
+        <v>49156</v>
       </c>
       <c r="U83" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>48730</v>
+        <v>49156</v>
       </c>
       <c r="V83" s="77">
         <f ca="1">IF(C83="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C83,"ACT/365.FIXED"))</f>
-        <v>15.358904109589041</v>
+        <v>15.353424657534246</v>
       </c>
       <c r="Y83" s="2">
         <f ca="1"/>
-        <v>48730</v>
+        <v>49156</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="85">
         <f t="shared" ca="1" si="14"/>
-        <v>48822</v>
+        <v>49248</v>
       </c>
       <c r="B84" s="85">
         <f t="shared" ca="1" si="10"/>
-        <v>48913</v>
+        <v>49340</v>
       </c>
       <c r="C84" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B84,A84)</f>
-        <v>48913</v>
+        <v>49340</v>
       </c>
       <c r="D84" s="79">
         <v>0</v>
@@ -12339,11 +12347,11 @@
       </c>
       <c r="F84" s="77">
         <f t="array" aca="1" ref="F84" ca="1">IF(A84&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N84, Cap!$G$12, Cap!$G$13,M84 ),0)</f>
-        <v>4.7900843235020885</v>
+        <v>4.7906319865883162</v>
       </c>
       <c r="G84" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>379.89175323749629</v>
+        <v>379.8576659116232</v>
       </c>
       <c r="H84" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12351,65 +12359,65 @@
       </c>
       <c r="I84" s="128">
         <f ca="1">IF(C84="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C84))</f>
-        <v>0.42518267717703107</v>
+        <v>0.42525053915825273</v>
       </c>
       <c r="J84" s="128">
         <f ca="1">IF(C84="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A84))</f>
-        <v>0.43026037963642566</v>
+        <v>0.43038544690726377</v>
       </c>
       <c r="K84" s="128">
         <f ca="1">IF(C84="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B84))</f>
-        <v>0.42518267717703107</v>
+        <v>0.42525053915825273</v>
       </c>
       <c r="L84" s="128">
         <f ca="1">IF(A84="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A84, B84,Cap!$B$18))</f>
-        <v>0.24931506849315069</v>
+        <v>0.25205479452054796</v>
       </c>
       <c r="M84" s="128">
         <f ca="1">IF(A84="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A84,Cap!$B$18))</f>
-        <v>15.358904109589041</v>
+        <v>15.353424657534246</v>
       </c>
       <c r="N84" s="128">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7900843235020885</v>
+        <v>4.7906319865883162</v>
       </c>
       <c r="O84" s="128">
         <f ca="1">IF(L84="#N/A",L84,IF(Cap!$B$17="Standard",L84*G84*M84,L84*G84*M84/(1+L84*M84)))</f>
-        <v>301.22628832679089</v>
+        <v>301.85661235359157</v>
       </c>
       <c r="P84" s="128">
         <f t="shared" ca="1" si="12"/>
-        <v>2.0366608765703456</v>
+        <v>2.037218835205453</v>
       </c>
       <c r="T84" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>48822</v>
+        <v>49248</v>
       </c>
       <c r="U84" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>48822</v>
+        <v>49248</v>
       </c>
       <c r="V84" s="77">
         <f ca="1">IF(C84="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C84,"ACT/365.FIXED"))</f>
-        <v>15.608219178082193</v>
+        <v>15.605479452054794</v>
       </c>
       <c r="Y84" s="2">
         <f ca="1"/>
-        <v>48822</v>
+        <v>49248</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="85">
         <f t="shared" ca="1" si="14"/>
-        <v>48913</v>
+        <v>49340</v>
       </c>
       <c r="B85" s="85">
         <f t="shared" ca="1" si="10"/>
-        <v>49003</v>
+        <v>49429</v>
       </c>
       <c r="C85" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B85,A85)</f>
-        <v>49003</v>
+        <v>49429</v>
       </c>
       <c r="D85" s="79">
         <v>0</v>
@@ -12419,11 +12427,11 @@
       </c>
       <c r="F85" s="77">
         <f t="array" aca="1" ref="F85" ca="1">IF(A85&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N85, Cap!$G$12, Cap!$G$13,M85 ),0)</f>
-        <v>4.7663046148268169</v>
+        <v>4.7662303143030043</v>
       </c>
       <c r="G85" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>384.65805785232311</v>
+        <v>384.62389622592622</v>
       </c>
       <c r="H85" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12431,65 +12439,65 @@
       </c>
       <c r="I85" s="128">
         <f ca="1">IF(C85="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C85))</f>
-        <v>0.4202437490986396</v>
+        <v>0.42036515326362278</v>
       </c>
       <c r="J85" s="128">
         <f ca="1">IF(C85="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A85))</f>
-        <v>0.42518267717703107</v>
+        <v>0.42525053915825273</v>
       </c>
       <c r="K85" s="128">
         <f ca="1">IF(C85="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B85))</f>
-        <v>0.4202437490986396</v>
+        <v>0.42036515326362278</v>
       </c>
       <c r="L85" s="128">
         <f ca="1">IF(A85="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A85, B85,Cap!$B$18))</f>
-        <v>0.24657534246575341</v>
+        <v>0.24383561643835616</v>
       </c>
       <c r="M85" s="128">
         <f ca="1">IF(A85="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A85,Cap!$B$18))</f>
-        <v>15.608219178082193</v>
+        <v>15.605479452054794</v>
       </c>
       <c r="N85" s="128">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7663046148268169</v>
+        <v>4.7662303143030043</v>
       </c>
       <c r="O85" s="128">
         <f ca="1">IF(L85="#N/A",L85,IF(Cap!$B$17="Standard",L85*G85*M85,L85*G85*M85/(1+L85*M85)))</f>
-        <v>305.32425014532225</v>
+        <v>304.58016000205566</v>
       </c>
       <c r="P85" s="128">
         <f t="shared" ca="1" si="12"/>
-        <v>2.0030097206809687</v>
+        <v>2.0035571365617075</v>
       </c>
       <c r="T85" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>48913</v>
+        <v>49340</v>
       </c>
       <c r="U85" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>48913</v>
+        <v>49340</v>
       </c>
       <c r="V85" s="77">
         <f ca="1">IF(C85="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C85,"ACT/365.FIXED"))</f>
-        <v>15.854794520547944</v>
+        <v>15.849315068493151</v>
       </c>
       <c r="Y85" s="2">
         <f ca="1"/>
-        <v>48913</v>
+        <v>49340</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="85">
         <f t="shared" ca="1" si="14"/>
-        <v>49003</v>
+        <v>49429</v>
       </c>
       <c r="B86" s="85">
         <f t="shared" ca="1" si="10"/>
-        <v>49095</v>
+        <v>49521</v>
       </c>
       <c r="C86" s="82">
         <f ca="1">IF(Cap!$B$19="Standard",B86,A86)</f>
-        <v>49095</v>
+        <v>49521</v>
       </c>
       <c r="D86" s="79">
         <v>0</v>
@@ -12499,11 +12507,11 @@
       </c>
       <c r="F86" s="77">
         <f t="array" aca="1" ref="F86" ca="1">IF(A86&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N86, Cap!$G$12, Cap!$G$13,M86 ),0)</f>
-        <v>4.7433225535510406</v>
+        <v>4.7436891853920766</v>
       </c>
       <c r="G86" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>389.40138040587414</v>
+        <v>389.36758541131832</v>
       </c>
       <c r="H86" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12511,15 +12519,15 @@
       </c>
       <c r="I86" s="128">
         <f ca="1">IF(C86="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C86))</f>
-        <v>0.41527877083308551</v>
+        <v>0.41539836132632685</v>
       </c>
       <c r="J86" s="128">
         <f ca="1">IF(C86="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A86))</f>
-        <v>0.4202437490986396</v>
+        <v>0.42036515326362278</v>
       </c>
       <c r="K86" s="128">
         <f ca="1">IF(C86="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B86))</f>
-        <v>0.41527877083308551</v>
+        <v>0.41539836132632685</v>
       </c>
       <c r="L86" s="128">
         <f ca="1">IF(A86="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A86, B86,Cap!$B$18))</f>
@@ -12527,41 +12535,41 @@
       </c>
       <c r="M86" s="128">
         <f ca="1">IF(A86="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A86,Cap!$B$18))</f>
-        <v>15.854794520547944</v>
+        <v>15.849315068493151</v>
       </c>
       <c r="N86" s="128">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7433225535510406</v>
+        <v>4.7436891853920766</v>
       </c>
       <c r="O86" s="128">
         <f ca="1">IF(L86="#N/A",L86,IF(Cap!$B$17="Standard",L86*G86*M86,L86*G86*M86/(1+L86*M86)))</f>
-        <v>311.4630710705348</v>
+        <v>311.41449151712283</v>
       </c>
       <c r="P86" s="128">
         <f t="shared" ca="1" si="12"/>
-        <v>1.9698011597035285</v>
+        <v>1.970520714253287</v>
       </c>
       <c r="T86" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>49003</v>
+        <v>49429</v>
       </c>
       <c r="U86" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>49003</v>
+        <v>49429</v>
       </c>
       <c r="V86" s="77">
         <f ca="1">IF(C86="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C86,"ACT/365.FIXED"))</f>
-        <v>16.106849315068494</v>
+        <v>16.101369863013698</v>
       </c>
       <c r="Y86" s="2">
         <f ca="1"/>
-        <v>49003</v>
+        <v>49429</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="85">
         <f t="shared" ca="1" si="14"/>
-        <v>49095</v>
+        <v>49521</v>
       </c>
       <c r="B87" s="85">
         <f t="shared" ca="1" si="10"/>
@@ -12579,11 +12587,11 @@
       </c>
       <c r="F87" s="77">
         <f t="array" aca="1" ref="F87" ca="1">IF(A87&lt;&gt;"#N/A",_xll.HLV5r3.Analytics.Options.BlackScholesWithGreeks(1, N87, Cap!$G$12, Cap!$G$13,M87 ),0)</f>
-        <v>4.9640254239560972</v>
+        <v>4.866938630962057</v>
       </c>
       <c r="G87" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H87" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12591,51 +12599,51 @@
       </c>
       <c r="I87" s="128">
         <f ca="1">IF(C87="#N/A",0,_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, C87))</f>
-        <v>0.50009056416682263</v>
+        <v>0.5346726785259206</v>
       </c>
       <c r="J87" s="128">
         <f ca="1">IF(C87="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, A87))</f>
-        <v>0.41527877083308551</v>
+        <v>0.41539836132632685</v>
       </c>
       <c r="K87" s="128">
         <f ca="1">IF(C87="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.GetValueFromBase(DiscountCurve, Cap!$F$4, B87))</f>
-        <v>0.50009056416682263</v>
+        <v>0.5346726785259206</v>
       </c>
       <c r="L87" s="128">
         <f ca="1">IF(A87="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(A87, B87,Cap!$B$18))</f>
-        <v>-3.4164383561643836</v>
+        <v>-4.5835616438356164</v>
       </c>
       <c r="M87" s="128">
         <f ca="1">IF(A87="#N/A","#N/A",_xll.HLV5r3.Financial.Cache.YearFraction(Cap!$F$4, A87,Cap!$B$18))</f>
-        <v>16.106849315068494</v>
+        <v>16.101369863013698</v>
       </c>
       <c r="N87" s="128">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9640254239560972</v>
+        <v>4.866938630962057</v>
       </c>
       <c r="O87" s="128">
         <f ca="1">IF(L87="#N/A",L87,IF(Cap!$B$17="Standard",L87*G87*M87,L87*G87*M87/(1+L87*M87)))</f>
-        <v>401.66467628134035</v>
+        <v>399.64971283764987</v>
       </c>
       <c r="P87" s="128">
         <f t="shared" ca="1" si="12"/>
-        <v>2.4824622748046554</v>
+        <v>2.60221911403776</v>
       </c>
       <c r="T87" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>49095</v>
+        <v>49521</v>
       </c>
       <c r="U87" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>49095</v>
+        <v>49521</v>
       </c>
       <c r="V87" s="77">
         <f ca="1">IF(C87="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C87,"ACT/365.FIXED"))</f>
-        <v>12.69041095890411</v>
+        <v>11.517808219178082</v>
       </c>
       <c r="Y87" s="2">
         <f ca="1"/>
-        <v>49095</v>
+        <v>49521</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -12663,7 +12671,7 @@
       </c>
       <c r="G88" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H88" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12703,11 +12711,11 @@
       </c>
       <c r="T88" s="75">
         <f t="shared" ca="1" si="9"/>
-        <v>49187</v>
+        <v>49613</v>
       </c>
       <c r="U88" s="73">
         <f t="shared" ca="1" si="13"/>
-        <v>49187</v>
+        <v>49613</v>
       </c>
       <c r="V88" s="77">
         <f ca="1">IF(C88="#N/A",0,_xll.HLV5r3.Financial.Cache.YearFraction(ValuationDate, C88,"ACT/365.FIXED"))</f>
@@ -12715,7 +12723,7 @@
       </c>
       <c r="Y88" s="2">
         <f ca="1"/>
-        <v>49187</v>
+        <v>49613</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -12743,7 +12751,7 @@
       </c>
       <c r="G89" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H89" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12823,7 +12831,7 @@
       </c>
       <c r="G90" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H90" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12903,7 +12911,7 @@
       </c>
       <c r="G91" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H91" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -12983,7 +12991,7 @@
       </c>
       <c r="G92" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H92" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13063,7 +13071,7 @@
       </c>
       <c r="G93" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H93" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13143,7 +13151,7 @@
       </c>
       <c r="G94" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H94" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13223,7 +13231,7 @@
       </c>
       <c r="G95" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H95" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13303,7 +13311,7 @@
       </c>
       <c r="G96" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H96" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13383,7 +13391,7 @@
       </c>
       <c r="G97" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H97" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13463,7 +13471,7 @@
       </c>
       <c r="G98" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H98" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13543,7 +13551,7 @@
       </c>
       <c r="G99" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H99" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13623,7 +13631,7 @@
       </c>
       <c r="G100" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H100" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13703,7 +13711,7 @@
       </c>
       <c r="G101" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H101" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13783,7 +13791,7 @@
       </c>
       <c r="G102" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H102" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13863,7 +13871,7 @@
       </c>
       <c r="G103" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H103" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -13943,7 +13951,7 @@
       </c>
       <c r="G104" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H104" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -14023,7 +14031,7 @@
       </c>
       <c r="G105" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H105" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -14103,7 +14111,7 @@
       </c>
       <c r="G106" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H106" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -14183,7 +14191,7 @@
       </c>
       <c r="G107" s="77">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H107" s="121" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
@@ -14263,7 +14271,7 @@
       </c>
       <c r="G108" s="76">
         <f t="shared" ca="1" si="15"/>
-        <v>394.36540582983025</v>
+        <v>394.23452404228038</v>
       </c>
       <c r="H108" s="124" t="str">
         <f>IF( Cap!$B$2="cap", "Caplet", "Floorlet")</f>
